--- a/analysis/KEGG_raw_data/PNA79_16h_vs_PNAscr_16h_KEGG_FNN_16h.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_16h_vs_PNAscr_16h_KEGG_FNN_16h.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="294">
   <si>
     <t>NGenes</t>
   </si>
@@ -53,6 +53,9 @@
     <t>fnu00900</t>
   </si>
   <si>
+    <t>fnu04980</t>
+  </si>
+  <si>
     <t>fnu03070</t>
   </si>
   <si>
@@ -101,6 +104,9 @@
     <t>fnu00680</t>
   </si>
   <si>
+    <t>fnu00074</t>
+  </si>
+  <si>
     <t>fnu00300</t>
   </si>
   <si>
@@ -113,198 +119,207 @@
     <t>fnu00400</t>
   </si>
   <si>
+    <t>fnu00710</t>
+  </si>
+  <si>
+    <t>fnu00625</t>
+  </si>
+  <si>
+    <t>fnu01240</t>
+  </si>
+  <si>
+    <t>fnu02060</t>
+  </si>
+  <si>
+    <t>fnu00561</t>
+  </si>
+  <si>
+    <t>fnu00521</t>
+  </si>
+  <si>
+    <t>fnu01232</t>
+  </si>
+  <si>
+    <t>fnu00630</t>
+  </si>
+  <si>
+    <t>fnu00720</t>
+  </si>
+  <si>
+    <t>fnu00520</t>
+  </si>
+  <si>
+    <t>fnu00650</t>
+  </si>
+  <si>
+    <t>fnu01120</t>
+  </si>
+  <si>
+    <t>fnu01250</t>
+  </si>
+  <si>
+    <t>fnu00362</t>
+  </si>
+  <si>
+    <t>fnu00061</t>
+  </si>
+  <si>
+    <t>fnu00010</t>
+  </si>
+  <si>
+    <t>fnu01503</t>
+  </si>
+  <si>
+    <t>fnu00640</t>
+  </si>
+  <si>
+    <t>fnu01200</t>
+  </si>
+  <si>
+    <t>fnu01100</t>
+  </si>
+  <si>
+    <t>fnu00910</t>
+  </si>
+  <si>
+    <t>fnu01212</t>
+  </si>
+  <si>
+    <t>fnu00310</t>
+  </si>
+  <si>
+    <t>fnu00280</t>
+  </si>
+  <si>
     <t>fnu00410</t>
   </si>
   <si>
-    <t>fnu00625</t>
+    <t>fnu04981</t>
+  </si>
+  <si>
+    <t>fnu00071</t>
+  </si>
+  <si>
+    <t>fnu00620</t>
+  </si>
+  <si>
+    <t>fnu00250</t>
+  </si>
+  <si>
+    <t>fnu00540</t>
+  </si>
+  <si>
+    <t>fnu00040</t>
+  </si>
+  <si>
+    <t>fnu03420</t>
+  </si>
+  <si>
+    <t>fnu02010</t>
+  </si>
+  <si>
+    <t>fnu00350</t>
+  </si>
+  <si>
+    <t>fnu01210</t>
+  </si>
+  <si>
+    <t>fnu04122</t>
+  </si>
+  <si>
+    <t>fnu00670</t>
+  </si>
+  <si>
+    <t>fnu00760</t>
+  </si>
+  <si>
+    <t>fnu00130</t>
+  </si>
+  <si>
+    <t>fnu00230</t>
+  </si>
+  <si>
+    <t>fnu00360</t>
+  </si>
+  <si>
+    <t>fnu00770</t>
+  </si>
+  <si>
+    <t>fnu00220</t>
+  </si>
+  <si>
+    <t>fnu02020</t>
+  </si>
+  <si>
+    <t>fnu00552</t>
+  </si>
+  <si>
+    <t>fnu00460</t>
+  </si>
+  <si>
+    <t>fnu00430</t>
+  </si>
+  <si>
+    <t>fnu00270</t>
+  </si>
+  <si>
+    <t>fnu00790</t>
+  </si>
+  <si>
+    <t>fnu01110</t>
+  </si>
+  <si>
+    <t>fnu00730</t>
+  </si>
+  <si>
+    <t>fnu02024</t>
+  </si>
+  <si>
+    <t>fnu03440</t>
+  </si>
+  <si>
+    <t>fnu00860</t>
+  </si>
+  <si>
+    <t>fnu00260</t>
+  </si>
+  <si>
+    <t>fnu00450</t>
+  </si>
+  <si>
+    <t>fnu00920</t>
+  </si>
+  <si>
+    <t>fnu01230</t>
+  </si>
+  <si>
+    <t>fnu00500</t>
+  </si>
+  <si>
+    <t>fnu00020</t>
+  </si>
+  <si>
+    <t>fnu03430</t>
+  </si>
+  <si>
+    <t>fnu00470</t>
+  </si>
+  <si>
+    <t>fnu00340</t>
+  </si>
+  <si>
+    <t>fnu00564</t>
+  </si>
+  <si>
+    <t>fnu00380</t>
+  </si>
+  <si>
+    <t>fnu00240</t>
   </si>
   <si>
     <t>fnu01501</t>
   </si>
   <si>
-    <t>fnu01240</t>
-  </si>
-  <si>
-    <t>fnu00640</t>
-  </si>
-  <si>
-    <t>fnu02060</t>
-  </si>
-  <si>
-    <t>fnu00561</t>
-  </si>
-  <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
-    <t>fnu00521</t>
-  </si>
-  <si>
-    <t>fnu01232</t>
-  </si>
-  <si>
-    <t>fnu00280</t>
-  </si>
-  <si>
-    <t>fnu00630</t>
-  </si>
-  <si>
-    <t>fnu01212</t>
-  </si>
-  <si>
-    <t>fnu01120</t>
-  </si>
-  <si>
-    <t>fnu00520</t>
-  </si>
-  <si>
-    <t>fnu01250</t>
-  </si>
-  <si>
-    <t>fnu00071</t>
-  </si>
-  <si>
-    <t>fnu00362</t>
-  </si>
-  <si>
-    <t>fnu00061</t>
-  </si>
-  <si>
-    <t>fnu01200</t>
-  </si>
-  <si>
-    <t>fnu00010</t>
-  </si>
-  <si>
-    <t>fnu01100</t>
-  </si>
-  <si>
-    <t>fnu00910</t>
-  </si>
-  <si>
-    <t>fnu00310</t>
-  </si>
-  <si>
-    <t>fnu00620</t>
-  </si>
-  <si>
-    <t>fnu00250</t>
-  </si>
-  <si>
-    <t>fnu00540</t>
-  </si>
-  <si>
-    <t>fnu00040</t>
-  </si>
-  <si>
-    <t>fnu03420</t>
-  </si>
-  <si>
-    <t>fnu00350</t>
-  </si>
-  <si>
-    <t>fnu01210</t>
-  </si>
-  <si>
-    <t>fnu02010</t>
-  </si>
-  <si>
-    <t>fnu00670</t>
-  </si>
-  <si>
-    <t>fnu04122</t>
-  </si>
-  <si>
-    <t>fnu00760</t>
-  </si>
-  <si>
-    <t>fnu00130</t>
-  </si>
-  <si>
-    <t>fnu00230</t>
-  </si>
-  <si>
-    <t>fnu00360</t>
-  </si>
-  <si>
-    <t>fnu00770</t>
-  </si>
-  <si>
-    <t>fnu00920</t>
-  </si>
-  <si>
-    <t>fnu00552</t>
-  </si>
-  <si>
-    <t>fnu00460</t>
-  </si>
-  <si>
-    <t>fnu00220</t>
-  </si>
-  <si>
-    <t>fnu00430</t>
-  </si>
-  <si>
-    <t>fnu00270</t>
-  </si>
-  <si>
-    <t>fnu00790</t>
-  </si>
-  <si>
-    <t>fnu02024</t>
-  </si>
-  <si>
-    <t>fnu01110</t>
-  </si>
-  <si>
-    <t>fnu00730</t>
-  </si>
-  <si>
-    <t>fnu03440</t>
-  </si>
-  <si>
-    <t>fnu00860</t>
-  </si>
-  <si>
-    <t>fnu00260</t>
-  </si>
-  <si>
-    <t>fnu00450</t>
-  </si>
-  <si>
-    <t>fnu01230</t>
-  </si>
-  <si>
-    <t>fnu00500</t>
-  </si>
-  <si>
-    <t>fnu01503</t>
-  </si>
-  <si>
-    <t>fnu00020</t>
-  </si>
-  <si>
-    <t>fnu03430</t>
-  </si>
-  <si>
-    <t>fnu00470</t>
-  </si>
-  <si>
-    <t>fnu00340</t>
-  </si>
-  <si>
-    <t>fnu02020</t>
-  </si>
-  <si>
-    <t>fnu00564</t>
-  </si>
-  <si>
-    <t>fnu00380</t>
-  </si>
-  <si>
-    <t>fnu00240</t>
-  </si>
-  <si>
     <t>fnu00523</t>
   </si>
   <si>
@@ -326,6 +341,9 @@
     <t>Terpenoid backbone biosynthesis</t>
   </si>
   <si>
+    <t>Cobalamin transport and metabolism</t>
+  </si>
+  <si>
     <t>Bacterial secretion system</t>
   </si>
   <si>
@@ -374,6 +392,9 @@
     <t>Methane metabolism</t>
   </si>
   <si>
+    <t>Mycolic acid biosynthesis</t>
+  </si>
+  <si>
     <t>Lysine biosynthesis</t>
   </si>
   <si>
@@ -386,198 +407,207 @@
     <t>Phenylalanine, tyrosine and tryptophan biosynthesis</t>
   </si>
   <si>
+    <t>Carbon fixation by Calvin cycle</t>
+  </si>
+  <si>
+    <t>Chloroalkane and chloroalkene degradation</t>
+  </si>
+  <si>
+    <t>Biosynthesis of cofactors</t>
+  </si>
+  <si>
+    <t>Phosphotransferase system (PTS)</t>
+  </si>
+  <si>
+    <t>Glycerolipid metabolism</t>
+  </si>
+  <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Nucleotide metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Microbial metabolism in diverse environments</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Metabolic pathways</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
     <t>beta-Alanine metabolism</t>
   </si>
   <si>
-    <t>Chloroalkane and chloroalkene degradation</t>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
+    <t>Pyruvate metabolism</t>
+  </si>
+  <si>
+    <t>Alanine, aspartate and glutamate metabolism</t>
+  </si>
+  <si>
+    <t>Lipopolysaccharide biosynthesis</t>
+  </si>
+  <si>
+    <t>Pentose and glucuronate interconversions</t>
+  </si>
+  <si>
+    <t>Nucleotide excision repair</t>
+  </si>
+  <si>
+    <t>ABC transporters</t>
+  </si>
+  <si>
+    <t>Tyrosine metabolism</t>
+  </si>
+  <si>
+    <t>2-Oxocarboxylic acid metabolism</t>
+  </si>
+  <si>
+    <t>Sulfur relay system</t>
+  </si>
+  <si>
+    <t>One carbon pool by folate</t>
+  </si>
+  <si>
+    <t>Nicotinate and nicotinamide metabolism</t>
+  </si>
+  <si>
+    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
+  </si>
+  <si>
+    <t>Purine metabolism</t>
+  </si>
+  <si>
+    <t>Phenylalanine metabolism</t>
+  </si>
+  <si>
+    <t>Pantothenate and CoA biosynthesis</t>
+  </si>
+  <si>
+    <t>Arginine biosynthesis</t>
+  </si>
+  <si>
+    <t>Two-component system</t>
+  </si>
+  <si>
+    <t>Teichoic acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Cyanoamino acid metabolism</t>
+  </si>
+  <si>
+    <t>Taurine and hypotaurine metabolism</t>
+  </si>
+  <si>
+    <t>Cysteine and methionine metabolism</t>
+  </si>
+  <si>
+    <t>Folate biosynthesis</t>
+  </si>
+  <si>
+    <t>Biosynthesis of secondary metabolites</t>
+  </si>
+  <si>
+    <t>Thiamine metabolism</t>
+  </si>
+  <si>
+    <t>Quorum sensing</t>
+  </si>
+  <si>
+    <t>Homologous recombination</t>
+  </si>
+  <si>
+    <t>Porphyrin metabolism</t>
+  </si>
+  <si>
+    <t>Glycine, serine and threonine metabolism</t>
+  </si>
+  <si>
+    <t>Selenocompound metabolism</t>
+  </si>
+  <si>
+    <t>Sulfur metabolism</t>
+  </si>
+  <si>
+    <t>Biosynthesis of amino acids</t>
+  </si>
+  <si>
+    <t>Starch and sucrose metabolism</t>
+  </si>
+  <si>
+    <t>Citrate cycle (TCA cycle)</t>
+  </si>
+  <si>
+    <t>Mismatch repair</t>
+  </si>
+  <si>
+    <t>D-Amino acid metabolism</t>
+  </si>
+  <si>
+    <t>Histidine metabolism</t>
+  </si>
+  <si>
+    <t>Glycerophospholipid metabolism</t>
+  </si>
+  <si>
+    <t>Tryptophan metabolism</t>
+  </si>
+  <si>
+    <t>Pyrimidine metabolism</t>
   </si>
   <si>
     <t>beta-Lactam resistance</t>
   </si>
   <si>
-    <t>Biosynthesis of cofactors</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>Phosphotransferase system (PTS)</t>
-  </si>
-  <si>
-    <t>Glycerolipid metabolism</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Streptomycin biosynthesis</t>
-  </si>
-  <si>
-    <t>Nucleotide metabolism</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>Microbial metabolism in diverse environments</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
-    <t>Benzoate degradation</t>
-  </si>
-  <si>
-    <t>Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t>Metabolic pathways</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Pyruvate metabolism</t>
-  </si>
-  <si>
-    <t>Alanine, aspartate and glutamate metabolism</t>
-  </si>
-  <si>
-    <t>Lipopolysaccharide biosynthesis</t>
-  </si>
-  <si>
-    <t>Pentose and glucuronate interconversions</t>
-  </si>
-  <si>
-    <t>Nucleotide excision repair</t>
-  </si>
-  <si>
-    <t>Tyrosine metabolism</t>
-  </si>
-  <si>
-    <t>2-Oxocarboxylic acid metabolism</t>
-  </si>
-  <si>
-    <t>ABC transporters</t>
-  </si>
-  <si>
-    <t>One carbon pool by folate</t>
-  </si>
-  <si>
-    <t>Sulfur relay system</t>
-  </si>
-  <si>
-    <t>Nicotinate and nicotinamide metabolism</t>
-  </si>
-  <si>
-    <t>Ubiquinone and other terpenoid-quinone biosynthesis</t>
-  </si>
-  <si>
-    <t>Purine metabolism</t>
-  </si>
-  <si>
-    <t>Phenylalanine metabolism</t>
-  </si>
-  <si>
-    <t>Pantothenate and CoA biosynthesis</t>
-  </si>
-  <si>
-    <t>Sulfur metabolism</t>
-  </si>
-  <si>
-    <t>Teichoic acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Cyanoamino acid metabolism</t>
-  </si>
-  <si>
-    <t>Arginine biosynthesis</t>
-  </si>
-  <si>
-    <t>Taurine and hypotaurine metabolism</t>
-  </si>
-  <si>
-    <t>Cysteine and methionine metabolism</t>
-  </si>
-  <si>
-    <t>Folate biosynthesis</t>
-  </si>
-  <si>
-    <t>Quorum sensing</t>
-  </si>
-  <si>
-    <t>Biosynthesis of secondary metabolites</t>
-  </si>
-  <si>
-    <t>Thiamine metabolism</t>
-  </si>
-  <si>
-    <t>Homologous recombination</t>
-  </si>
-  <si>
-    <t>Porphyrin metabolism</t>
-  </si>
-  <si>
-    <t>Glycine, serine and threonine metabolism</t>
-  </si>
-  <si>
-    <t>Selenocompound metabolism</t>
-  </si>
-  <si>
-    <t>Biosynthesis of amino acids</t>
-  </si>
-  <si>
-    <t>Starch and sucrose metabolism</t>
-  </si>
-  <si>
-    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
-  </si>
-  <si>
-    <t>Citrate cycle (TCA cycle)</t>
-  </si>
-  <si>
-    <t>Mismatch repair</t>
-  </si>
-  <si>
-    <t>D-Amino acid metabolism</t>
-  </si>
-  <si>
-    <t>Histidine metabolism</t>
-  </si>
-  <si>
-    <t>Two-component system</t>
-  </si>
-  <si>
-    <t>Glycerophospholipid metabolism</t>
-  </si>
-  <si>
-    <t>Tryptophan metabolism</t>
-  </si>
-  <si>
-    <t>Pyrimidine metabolism</t>
-  </si>
-  <si>
     <t>Polyketide sugar unit biosynthesis</t>
   </si>
   <si>
@@ -596,6 +626,9 @@
     <t>cds-C4N14_02450;cds-C4N14_09835;cds-C4N14_09750;cds-C4N14_06090;cds-C4N14_05480;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10740;cds-C4N14_00465;cds-C4N14_01475;cds-C4N14_01505</t>
   </si>
   <si>
+    <t>cds-C4N14_04180;cds-C4N14_05600</t>
+  </si>
+  <si>
     <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
   </si>
   <si>
@@ -644,6 +677,9 @@
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08230;cds-C4N14_06345;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_01390</t>
   </si>
   <si>
+    <t>cds-C4N14_04125;cds-C4N14_10145</t>
+  </si>
+  <si>
     <t>cds-C4N14_04745;cds-C4N14_06005;cds-C4N14_10725</t>
   </si>
   <si>
@@ -656,78 +692,87 @@
     <t>cds-C4N14_02565;cds-C4N14_04955;cds-C4N14_08105;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_06380;cds-C4N14_10860;cds-C4N14_00375</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_10260;cds-C4N14_03680</t>
   </si>
   <si>
     <t>cds-C4N14_04880;cds-C4N14_09955</t>
   </si>
   <si>
-    <t>cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_00485</t>
-  </si>
-  <si>
     <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02625;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02805;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04575;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09755;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09260;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08525;cds-C4N14_08400;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07725;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07100;cds-C4N14_06485;cds-C4N14_06120;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05600;cds-C4N14_10135;cds-C4N14_10735;cds-C4N14_10865;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00585;cds-C4N14_00670;cds-C4N14_01225;cds-C4N14_01230;cds-C4N14_01235;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01515;cds-C4N14_03415;cds-C4N14_02030;cds-C4N14_02080</t>
   </si>
   <si>
-    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_09095;cds-C4N14_09090;cds-C4N14_09080;cds-C4N14_07595;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_00270;cds-C4N14_01480;cds-C4N14_01530;cds-C4N14_01535;cds-C4N14_03445</t>
   </si>
   <si>
     <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
   </si>
   <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
-  </si>
-  <si>
     <t>cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04570;cds-C4N14_04795;cds-C4N14_04920;cds-C4N14_05240;cds-C4N14_10085;cds-C4N14_10005;cds-C4N14_09810;cds-C4N14_08410;cds-C4N14_07025;cds-C4N14_05980;cds-C4N14_05620;cds-C4N14_05485;cds-C4N14_10640;cds-C4N14_10840;cds-C4N14_00370;cds-C4N14_00585;cds-C4N14_00595;cds-C4N14_00670;cds-C4N14_03565;cds-C4N14_01845;cds-C4N14_02045</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_09750;cds-C4N14_03800;cds-C4N14_03790</t>
   </si>
   <si>
-    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210;cds-C4N14_03815</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+    <t>cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09750;cds-C4N14_08525;cds-C4N14_08240;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_02080</t>
   </si>
   <si>
     <t>cds-C4N14_05230;cds-C4N14_05280;cds-C4N14_09965;cds-C4N14_09430;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07595;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_10695;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_00125;cds-C4N14_00270;cds-C4N14_00950;cds-C4N14_03065;cds-C4N14_01950;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
     <t>cds-C4N14_04460;cds-C4N14_05230;cds-C4N14_05280;cds-C4N14_09965;cds-C4N14_09720;cds-C4N14_09430;cds-C4N14_08185;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07655;cds-C4N14_07525;cds-C4N14_06300;cds-C4N14_06010;cds-C4N14_05800;cds-C4N14_05615;cds-C4N14_10695;cds-C4N14_00125;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01500;cds-C4N14_03065;cds-C4N14_01950;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
-    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_10550;cds-C4N14_00210</t>
-  </si>
-  <si>
     <t>cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04400;cds-C4N14_09750;cds-C4N14_07070</t>
   </si>
   <si>
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09260;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_03815</t>
   </si>
   <si>
-    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06680;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03430;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
   </si>
   <si>
     <t>cds-C4N14_04880;cds-C4N14_09785;cds-C4N14_08920;cds-C4N14_08805</t>
   </si>
   <si>
+    <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210;cds-C4N14_03815</t>
+  </si>
+  <si>
     <t>cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720</t>
   </si>
   <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09955;cds-C4N14_08295;cds-C4N14_00210</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_07660</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210</t>
+  </si>
+  <si>
     <t>cds-C4N14_02800;cds-C4N14_04385;cds-C4N14_04670;cds-C4N14_05180;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_08240;cds-C4N14_06915;cds-C4N14_06555;cds-C4N14_06310;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10310;cds-C4N14_10535;cds-C4N14_00215;cds-C4N14_01395</t>
   </si>
   <si>
@@ -743,22 +788,22 @@
     <t>cds-C4N14_02440;cds-C4N14_04515;cds-C4N14_09610;cds-C4N14_09270;cds-C4N14_06700;cds-C4N14_06640;cds-C4N14_01175</t>
   </si>
   <si>
+    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_01630;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
+  </si>
+  <si>
     <t>cds-C4N14_06380;cds-C4N14_03080</t>
   </si>
   <si>
     <t>cds-C4N14_06380;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
-    <t>cds-C4N14_04685;cds-C4N14_04905;cds-C4N14_04910;cds-C4N14_04915;cds-C4N14_05265;cds-C4N14_05270;cds-C4N14_05275;cds-C4N14_09325;cds-C4N14_09320;cds-C4N14_09165;cds-C4N14_09160;cds-C4N14_09145;cds-C4N14_08950;cds-C4N14_08945;cds-C4N14_08940;cds-C4N14_08900;cds-C4N14_08895;cds-C4N14_08890;cds-C4N14_08885;cds-C4N14_08745;cds-C4N14_08220;cds-C4N14_08215;cds-C4N14_08210;cds-C4N14_07440;cds-C4N14_07015;cds-C4N14_07010;cds-C4N14_06470;cds-C4N14_06465;cds-C4N14_06460;cds-C4N14_06295;cds-C4N14_06290;cds-C4N14_06285;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00030;cds-C4N14_00035;cds-C4N14_00040;cds-C4N14_00045;cds-C4N14_00050;cds-C4N14_01555;cds-C4N14_01560;cds-C4N14_01565;cds-C4N14_01615;cds-C4N14_01620;cds-C4N14_01625;cds-C4N14_03015;cds-C4N14_03010;cds-C4N14_03005;cds-C4N14_03000;cds-C4N14_02950;cds-C4N14_02945</t>
-  </si>
-  <si>
-    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_02080</t>
-  </si>
-  <si>
     <t>cds-C4N14_02625;cds-C4N14_08385;cds-C4N14_01345;cds-C4N14_01350;cds-C4N14_03475</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_03430</t>
+    <t>cds-C4N14_04180;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_05175;cds-C4N14_08525;cds-C4N14_08515;cds-C4N14_07660;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_10470;cds-C4N14_10865;cds-C4N14_02080</t>
+  </si>
+  <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_04695;cds-C4N14_05140;cds-C4N14_10005;cds-C4N14_06485;cds-C4N14_06200;cds-C4N14_06120</t>
   </si>
   <si>
     <t>cds-C4N14_00245;cds-C4N14_00250</t>
@@ -773,7 +818,10 @@
     <t>cds-C4N14_04160;cds-C4N14_09955;cds-C4N14_08670;cds-C4N14_08400;cds-C4N14_10145;cds-C4N14_03415</t>
   </si>
   <si>
-    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06030;cds-C4N14_01300</t>
+    <t>cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
+  </si>
+  <si>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
   </si>
   <si>
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
@@ -782,9 +830,6 @@
     <t>cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_07790;cds-C4N14_07470</t>
   </si>
   <si>
-    <t>cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
-  </si>
-  <si>
     <t>cds-C4N14_09785;cds-C4N14_07790;cds-C4N14_07470;cds-C4N14_06265;cds-C4N14_06260</t>
   </si>
   <si>
@@ -794,15 +839,15 @@
     <t>cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_04575;cds-C4N14_07100;cds-C4N14_00070;cds-C4N14_01225;cds-C4N14_01230;cds-C4N14_01235</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10245;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
-  </si>
-  <si>
-    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10550;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
+    <t>cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_04115;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04180;cds-C4N14_04295;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05175;cds-C4N14_05240;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08690;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08450;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07640;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06380;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06090;cds-C4N14_06030;cds-C4N14_05980;cds-C4N14_05800;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05575;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05470;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10420;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10740;cds-C4N14_10860;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00210;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00485;cds-C4N14_00890;cds-C4N14_01020;cds-C4N14_01055;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01505;cds-C4N14_03680;cds-C4N14_03490;cds-C4N14_03060;cds-C4N14_01950</t>
   </si>
   <si>
     <t>cds-C4N14_02625;cds-C4N14_08830;cds-C4N14_07725;cds-C4N14_06090;cds-C4N14_05620;cds-C4N14_10740;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365</t>
   </si>
   <si>
+    <t>cds-C4N14_02370;cds-C4N14_04340;cds-C4N14_04345;cds-C4N14_04350;cds-C4N14_04355;cds-C4N14_05365;cds-C4N14_05370;cds-C4N14_05375;cds-C4N14_05380;cds-C4N14_05385;cds-C4N14_09550;cds-C4N14_07840;cds-C4N14_07185;cds-C4N14_06785;cds-C4N14_06610;cds-C4N14_06605;cds-C4N14_06600;cds-C4N14_06595;cds-C4N14_06590;cds-C4N14_06535;cds-C4N14_05535;cds-C4N14_05425;cds-C4N14_10225;cds-C4N14_10230;cds-C4N14_10235;cds-C4N14_10240;cds-C4N14_10405;cds-C4N14_10570;cds-C4N14_10575;cds-C4N14_10580;cds-C4N14_10585;cds-C4N14_10590;cds-C4N14_00060;cds-C4N14_00140;cds-C4N14_00145;cds-C4N14_00150;cds-C4N14_00155;cds-C4N14_00160;cds-C4N14_00680;cds-C4N14_00795;cds-C4N14_00800;cds-C4N14_00805;cds-C4N14_00810;cds-C4N14_00815;cds-C4N14_01180;cds-C4N14_01890</t>
+  </si>
+  <si>
     <t>cds-C4N14_04335;cds-C4N14_04465;cds-C4N14_04760;cds-C4N14_05260;cds-C4N14_10095;cds-C4N14_09560;cds-C4N14_09505;cds-C4N14_09150;cds-C4N14_07585;cds-C4N14_06635;cds-C4N14_06360;cds-C4N14_06045;cds-C4N14_05595;cds-C4N14_10345;cds-C4N14_10885;cds-C4N14_00445;cds-C4N14_00855;cds-C4N14_03915;cds-C4N14_02900;cds-C4N14_02340</t>
   </si>
   <si>
@@ -815,15 +860,15 @@
     <t>cds-C4N14_04180;cds-C4N14_09115;cds-C4N14_06305;cds-C4N14_05790;cds-C4N14_10525;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_03100</t>
   </si>
   <si>
+    <t>cds-C4N14_07115;cds-C4N14_06885;cds-C4N14_06710;cds-C4N14_06030;cds-C4N14_01300</t>
+  </si>
+  <si>
     <t>cds-C4N14_02565;cds-C4N14_04180;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05175;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_09115;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08330;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10860;cds-C4N14_00375;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03680;cds-C4N14_03060</t>
   </si>
   <si>
     <t>cds-C4N14_09430;cds-C4N14_08225;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07595;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_09255;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_06555;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
@@ -836,9 +881,6 @@
     <t>cds-C4N14_10035;cds-C4N14_09955;cds-C4N14_08930;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470</t>
   </si>
   <si>
-    <t>cds-C4N14_04325;cds-C4N14_04330;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
-  </si>
-  <si>
     <t>cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_04295;cds-C4N14_05135;cds-C4N14_09555;cds-C4N14_07640;cds-C4N14_07560;cds-C4N14_07220;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05475;cds-C4N14_01065;cds-C4N14_03615;cds-C4N14_03535;cds-C4N14_03425</t>
   </si>
   <si>
@@ -846,6 +888,9 @@
   </si>
   <si>
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04570;cds-C4N14_04920;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09810;cds-C4N14_08410;cds-C4N14_07025;cds-C4N14_05485;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_03565</t>
+  </si>
+  <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
   </si>
   <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
@@ -934,25 +979,25 @@
         <v>123.0</v>
       </c>
       <c r="C2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D2" t="n">
         <v>9.297642098964635E-10</v>
       </c>
       <c r="E2" t="n">
-        <v>8.367877889068171E-8</v>
+        <v>8.832759994016403E-8</v>
       </c>
       <c r="F2" t="n">
         <v>2.894393613078319E-12</v>
       </c>
       <c r="G2" t="n">
-        <v>3.8973405558398266E-11</v>
+        <v>4.113859475608705E-11</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
       </c>
       <c r="I2" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="3">
@@ -963,25 +1008,25 @@
         <v>12.0</v>
       </c>
       <c r="C3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D3" t="n">
         <v>2.513831479201519E-7</v>
       </c>
       <c r="E3" t="n">
-        <v>1.1312241656406836E-5</v>
+        <v>1.1940699526207216E-5</v>
       </c>
       <c r="F3" t="n">
         <v>6.907793671996626E-9</v>
       </c>
       <c r="G3" t="n">
-        <v>2.7030496977378103E-8</v>
+        <v>2.982910903816725E-8</v>
       </c>
       <c r="H3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="I3" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -992,25 +1037,25 @@
         <v>11.0</v>
       </c>
       <c r="C4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D4" t="n">
         <v>7.770553597475036E-7</v>
       </c>
       <c r="E4" t="n">
-        <v>2.331166079242511E-5</v>
+        <v>2.4606753058670948E-5</v>
       </c>
       <c r="F4" t="n">
         <v>2.7311347052751333E-8</v>
       </c>
       <c r="G4" t="n">
-        <v>9.453927825952385E-8</v>
+        <v>9.979146038505294E-8</v>
       </c>
       <c r="H4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5">
@@ -1021,25 +1066,25 @@
         <v>4.0</v>
       </c>
       <c r="C5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D5" t="n">
         <v>1.2520839005564986E-6</v>
       </c>
       <c r="E5" t="n">
-        <v>2.6780946183548827E-5</v>
+        <v>2.8268776527079317E-5</v>
       </c>
       <c r="F5" t="n">
         <v>0.005525281327837174</v>
       </c>
       <c r="G5" t="n">
-        <v>0.008428395245853315</v>
+        <v>0.008604946330238221</v>
       </c>
       <c r="H5" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6">
@@ -1050,25 +1095,25 @@
         <v>11.0</v>
       </c>
       <c r="C6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D6" t="n">
         <v>1.4878303435304904E-6</v>
       </c>
       <c r="E6" t="n">
-        <v>2.6780946183548827E-5</v>
+        <v>2.8268776527079317E-5</v>
       </c>
       <c r="F6" t="n">
         <v>1.1235849734555153E-10</v>
       </c>
       <c r="G6" t="n">
-        <v>6.741509840733092E-10</v>
+        <v>7.624326605590996E-10</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
@@ -1076,28 +1121,28 @@
         <v>13</v>
       </c>
       <c r="B7" t="n">
-        <v>13.0</v>
+        <v>2.0</v>
       </c>
       <c r="C7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D7" t="n">
-        <v>6.1598239439030904E-6</v>
+        <v>2.618282831376252E-6</v>
       </c>
       <c r="E7" t="n">
-        <v>9.239735915854636E-5</v>
+        <v>4.145614483012399E-5</v>
       </c>
       <c r="F7" t="n">
-        <v>6.797021574302152E-12</v>
+        <v>0.3245697766514456</v>
       </c>
       <c r="G7" t="n">
-        <v>6.797021574302151E-11</v>
+        <v>0.39030542761882697</v>
       </c>
       <c r="H7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="I7" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8">
@@ -1105,28 +1150,28 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>50.0</v>
+        <v>13.0</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>9.217964835294652E-6</v>
+        <v>6.1598239439030904E-6</v>
       </c>
       <c r="E8" t="n">
-        <v>1.1851669073950267E-4</v>
+        <v>8.359761066725623E-5</v>
       </c>
       <c r="F8" t="n">
-        <v>3.08960802581877E-8</v>
+        <v>6.797021574302152E-12</v>
       </c>
       <c r="G8" t="n">
-        <v>9.930882940131761E-8</v>
+        <v>7.174633883985605E-11</v>
       </c>
       <c r="H8" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="I8" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9">
@@ -1134,28 +1179,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="n">
-        <v>10.0</v>
+        <v>50.0</v>
       </c>
       <c r="C9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D9" t="n">
-        <v>1.2010480958223475E-5</v>
+        <v>9.217964835294652E-6</v>
       </c>
       <c r="E9" t="n">
-        <v>1.351179107800141E-4</v>
+        <v>1.0946333241912398E-4</v>
       </c>
       <c r="F9" t="n">
-        <v>6.757002798833321E-6</v>
+        <v>3.08960802581877E-8</v>
       </c>
       <c r="G9" t="n">
-        <v>1.4832445168170706E-5</v>
+        <v>1.0482598659027969E-7</v>
       </c>
       <c r="H9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="10">
@@ -1163,28 +1208,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="n">
-        <v>5.0</v>
+        <v>10.0</v>
       </c>
       <c r="C10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D10" t="n">
-        <v>1.5261906117643363E-5</v>
+        <v>1.2010480958223475E-5</v>
       </c>
       <c r="E10" t="n">
-        <v>1.5261906117643363E-4</v>
+        <v>1.2677729900347002E-4</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0013196672913407704</v>
+        <v>6.757002798833321E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>0.002120893861083381</v>
+        <v>1.5656469899735744E-5</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I10" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11">
@@ -1192,28 +1237,28 @@
         <v>17</v>
       </c>
       <c r="B11" t="n">
-        <v>16.0</v>
+        <v>5.0</v>
       </c>
       <c r="C11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D11" t="n">
-        <v>1.854667877567446E-5</v>
+        <v>1.5261906117643363E-5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.6692010898107013E-4</v>
+        <v>1.4498810811761195E-4</v>
       </c>
       <c r="F11" t="n">
-        <v>3.0312648767643093E-12</v>
+        <v>0.0013196672913407704</v>
       </c>
       <c r="G11" t="n">
-        <v>3.8973405558398266E-11</v>
+        <v>0.0021248880114809014</v>
       </c>
       <c r="H11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="I11" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12">
@@ -1221,28 +1266,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="n">
-        <v>27.0</v>
+        <v>16.0</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D12" t="n">
-        <v>3.4105495129692386E-5</v>
+        <v>1.854667877567446E-5</v>
       </c>
       <c r="E12" t="n">
-        <v>2.790449601520286E-4</v>
+        <v>1.6017586215355217E-4</v>
       </c>
       <c r="F12" t="n">
-        <v>5.149938806819971E-15</v>
+        <v>3.0312648767643093E-12</v>
       </c>
       <c r="G12" t="n">
-        <v>3.051740256672799E-13</v>
+        <v>4.113859475608705E-11</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="I12" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13">
@@ -1250,28 +1295,28 @@
         <v>19</v>
       </c>
       <c r="B13" t="n">
-        <v>14.0</v>
+        <v>27.0</v>
       </c>
       <c r="C13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D13" t="n">
-        <v>4.378597763389398E-5</v>
+        <v>3.4105495129692386E-5</v>
       </c>
       <c r="E13" t="n">
-        <v>3.2839483225420487E-4</v>
+        <v>2.7000183644339807E-4</v>
       </c>
       <c r="F13" t="n">
-        <v>3.51406838873695E-12</v>
+        <v>5.149938806819971E-15</v>
       </c>
       <c r="G13" t="n">
-        <v>3.953326937329069E-11</v>
+        <v>3.4970984888521574E-13</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="I13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="14">
@@ -1279,28 +1324,28 @@
         <v>20</v>
       </c>
       <c r="B14" t="n">
-        <v>7.0</v>
+        <v>14.0</v>
       </c>
       <c r="C14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>7.974288375800816E-5</v>
+        <v>4.378597763389398E-5</v>
       </c>
       <c r="E14" t="n">
-        <v>5.520661183246719E-4</v>
+        <v>3.199744519399945E-4</v>
       </c>
       <c r="F14" t="n">
-        <v>8.01496394179329E-5</v>
+        <v>3.51406838873695E-12</v>
       </c>
       <c r="G14" t="n">
-        <v>1.472136234206931E-4</v>
+        <v>4.1729562116251285E-11</v>
       </c>
       <c r="H14" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="I14" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="15">
@@ -1308,28 +1353,28 @@
         <v>21</v>
       </c>
       <c r="B15" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="C15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D15" t="n">
-        <v>1.6230116310596168E-4</v>
+        <v>7.974288375800816E-5</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0010433646199668966</v>
+        <v>5.411124255007697E-4</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0019455325005048</v>
+        <v>8.01496394179329E-5</v>
       </c>
       <c r="G15" t="n">
-        <v>0.003071893421849684</v>
+        <v>1.5104448345831594E-4</v>
       </c>
       <c r="H15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="I15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
@@ -1337,28 +1382,28 @@
         <v>22</v>
       </c>
       <c r="B16" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D16" t="n">
-        <v>1.7579862409592003E-4</v>
+        <v>1.6230116310596168E-4</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0010547917445755202</v>
+        <v>0.0010279073663377572</v>
       </c>
       <c r="F16" t="n">
-        <v>0.388285749019957</v>
+        <v>0.0019455325005048</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4598120712078438</v>
+        <v>0.0030804264591326</v>
       </c>
       <c r="H16" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="I16" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
@@ -1366,28 +1411,28 @@
         <v>23</v>
       </c>
       <c r="B17" t="n">
-        <v>9.0</v>
+        <v>2.0</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D17" t="n">
-        <v>2.4570872717945324E-4</v>
+        <v>1.7579862409592003E-4</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0013515032332522038</v>
+        <v>0.0010438043305695253</v>
       </c>
       <c r="F17" t="n">
-        <v>1.1432707912764722E-4</v>
+        <v>0.388285749019957</v>
       </c>
       <c r="G17" t="n">
-        <v>2.017536690487892E-4</v>
+        <v>0.4553968661345175</v>
       </c>
       <c r="H17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="I17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18">
@@ -1395,28 +1440,28 @@
         <v>24</v>
       </c>
       <c r="B18" t="n">
-        <v>6.0</v>
+        <v>9.0</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D18" t="n">
-        <v>2.552839440587496E-4</v>
+        <v>2.4570872717945324E-4</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0013515032332522038</v>
+        <v>0.001347331926976734</v>
       </c>
       <c r="F18" t="n">
-        <v>2.242601251527741E-5</v>
+        <v>1.1432707912764722E-4</v>
       </c>
       <c r="G18" t="n">
-        <v>4.58713892357947E-5</v>
+        <v>2.0492589654955634E-4</v>
       </c>
       <c r="H18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I18" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
@@ -1424,28 +1469,28 @@
         <v>25</v>
       </c>
       <c r="B19" t="n">
-        <v>18.0</v>
+        <v>6.0</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D19" t="n">
-        <v>3.424471574263188E-4</v>
+        <v>2.552839440587496E-4</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001712235787131594</v>
+        <v>0.001347331926976734</v>
       </c>
       <c r="F19" t="n">
-        <v>2.7435709298465845E-10</v>
+        <v>2.242601251527741E-5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.452478727565839E-9</v>
+        <v>4.734380419891898E-5</v>
       </c>
       <c r="H19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="I19" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20">
@@ -1453,28 +1498,28 @@
         <v>26</v>
       </c>
       <c r="B20" t="n">
-        <v>10.0</v>
+        <v>18.0</v>
       </c>
       <c r="C20" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D20" t="n">
-        <v>4.391422683289196E-4</v>
+        <v>3.424471574263188E-4</v>
       </c>
       <c r="E20" t="n">
-        <v>0.001947708019870463</v>
+        <v>0.001712235787131594</v>
       </c>
       <c r="F20" t="n">
-        <v>4.330338827044871E-5</v>
+        <v>2.7435709298465845E-10</v>
       </c>
       <c r="G20" t="n">
-        <v>8.472402052913878E-5</v>
+        <v>1.6289952395964096E-9</v>
       </c>
       <c r="H20" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
@@ -1482,28 +1527,28 @@
         <v>27</v>
       </c>
       <c r="B21" t="n">
-        <v>11.0</v>
+        <v>10.0</v>
       </c>
       <c r="C21" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D21" t="n">
-        <v>4.4945420088251517E-4</v>
+        <v>4.391422683289196E-4</v>
       </c>
       <c r="E21" t="n">
-        <v>0.001947708019870463</v>
+        <v>0.0019624633836573604</v>
       </c>
       <c r="F21" t="n">
-        <v>7.456439056548478E-6</v>
+        <v>4.330338827044871E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>1.597808369260388E-5</v>
+        <v>8.752812522750272E-5</v>
       </c>
       <c r="H21" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="I21" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="22">
@@ -1511,28 +1556,28 @@
         <v>28</v>
       </c>
       <c r="B22" t="n">
-        <v>9.0</v>
+        <v>11.0</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D22" t="n">
-        <v>4.5446520463644134E-4</v>
+        <v>4.4945420088251517E-4</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001947708019870463</v>
+        <v>0.0019624633836573604</v>
       </c>
       <c r="F22" t="n">
-        <v>1.9367215602608453E-4</v>
+        <v>7.456439056548478E-6</v>
       </c>
       <c r="G22" t="n">
-        <v>3.3520180850668476E-4</v>
+        <v>1.6865755008859654E-5</v>
       </c>
       <c r="H22" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
@@ -1540,28 +1585,28 @@
         <v>29</v>
       </c>
       <c r="B23" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C23" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D23" t="n">
-        <v>8.390661751180966E-4</v>
+        <v>4.5446520463644134E-4</v>
       </c>
       <c r="E23" t="n">
-        <v>0.003432543443664941</v>
+        <v>0.0019624633836573604</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6871732667690318</v>
+        <v>1.9367215602608453E-4</v>
       </c>
       <c r="G23" t="n">
-        <v>0.7451276386652151</v>
+        <v>3.4071953374959315E-4</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="I23" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="24">
@@ -1569,28 +1614,28 @@
         <v>30</v>
       </c>
       <c r="B24" t="n">
-        <v>8.0</v>
+        <v>2.0</v>
       </c>
       <c r="C24" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0010346843475668292</v>
+        <v>6.928691333706887E-4</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004048764838304983</v>
+        <v>0.0028618507682702356</v>
       </c>
       <c r="F24" t="n">
-        <v>3.768713375806794E-5</v>
+        <v>0.40815832696152776</v>
       </c>
       <c r="G24" t="n">
-        <v>7.537426751613588E-5</v>
+        <v>0.472866354406648</v>
       </c>
       <c r="H24" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -1598,28 +1643,28 @@
         <v>31</v>
       </c>
       <c r="B25" t="n">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="C25" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0012377306820839113</v>
+        <v>8.390661751180966E-4</v>
       </c>
       <c r="E25" t="n">
-        <v>0.004641490057814668</v>
+        <v>0.003321303609842466</v>
       </c>
       <c r="F25" t="n">
-        <v>0.00843479564077344</v>
+        <v>0.6871732667690318</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01265219346116016</v>
+        <v>0.750361613138598</v>
       </c>
       <c r="H25" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="I25" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
@@ -1630,25 +1675,25 @@
         <v>8.0</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0018546165783229912</v>
+        <v>0.0010346843475668292</v>
       </c>
       <c r="E26" t="n">
-        <v>0.006676619681962768</v>
+        <v>0.00393180052075395</v>
       </c>
       <c r="F26" t="n">
-        <v>4.611998632093313E-5</v>
+        <v>3.768713375806794E-5</v>
       </c>
       <c r="G26" t="n">
-        <v>8.831486742306344E-5</v>
+        <v>7.78321240655751E-5</v>
       </c>
       <c r="H26" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="I26" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
@@ -1656,28 +1701,28 @@
         <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C27" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0023230480426813136</v>
+        <v>0.0012377306820839113</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007590205197533826</v>
+        <v>0.004522477492229676</v>
       </c>
       <c r="F27" t="n">
-        <v>0.18774022275752655</v>
+        <v>0.00843479564077344</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2283327033537485</v>
+        <v>0.012924283643120593</v>
       </c>
       <c r="H27" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="I27" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="28">
@@ -1685,28 +1730,28 @@
         <v>34</v>
       </c>
       <c r="B28" t="n">
-        <v>2.0</v>
+        <v>8.0</v>
       </c>
       <c r="C28" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0023514034663798086</v>
+        <v>0.0018546165783229912</v>
       </c>
       <c r="E28" t="n">
-        <v>0.007590205197533826</v>
+        <v>0.006525502775580895</v>
       </c>
       <c r="F28" t="n">
-        <v>0.7197077246121513</v>
+        <v>4.611998632093313E-5</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7711154192273049</v>
+        <v>9.127913959351348E-5</v>
       </c>
       <c r="H28" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29">
@@ -1714,28 +1759,28 @@
         <v>35</v>
       </c>
       <c r="B29" t="n">
-        <v>4.0</v>
+        <v>12.0</v>
       </c>
       <c r="C29" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D29" t="n">
-        <v>0.002442276413181794</v>
+        <v>0.0019310403373405851</v>
       </c>
       <c r="E29" t="n">
-        <v>0.007590205197533826</v>
+        <v>0.006551744001691271</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0748083128378033</v>
+        <v>1.988633175547145E-7</v>
       </c>
       <c r="G29" t="n">
-        <v>0.10186571431612022</v>
+        <v>5.397718619342251E-7</v>
       </c>
       <c r="H29" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="I29" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="30">
@@ -1743,28 +1788,28 @@
         <v>36</v>
       </c>
       <c r="B30" t="n">
-        <v>91.0</v>
+        <v>2.0</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0024457327858720106</v>
+        <v>0.0023514034663798086</v>
       </c>
       <c r="E30" t="n">
-        <v>0.007590205197533826</v>
+        <v>0.007702873424347649</v>
       </c>
       <c r="F30" t="n">
-        <v>4.109133325318159E-10</v>
+        <v>0.7197077246121513</v>
       </c>
       <c r="G30" t="n">
-        <v>1.946431575150707E-9</v>
+        <v>0.7769572027062996</v>
       </c>
       <c r="H30" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="I30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
@@ -1772,28 +1817,28 @@
         <v>37</v>
       </c>
       <c r="B31" t="n">
-        <v>9.0</v>
+        <v>91.0</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0027763971338088584</v>
+        <v>0.0024457327858720106</v>
       </c>
       <c r="E31" t="n">
-        <v>0.008329191401426576</v>
+        <v>0.0077448204885947</v>
       </c>
       <c r="F31" t="n">
-        <v>0.004325207111930413</v>
+        <v>4.109133325318159E-10</v>
       </c>
       <c r="G31" t="n">
-        <v>0.006711528277133399</v>
+        <v>2.1687092550290284E-9</v>
       </c>
       <c r="H31" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="I31" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32">
@@ -1804,25 +1849,25 @@
         <v>12.0</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D32" t="n">
         <v>0.0030115389791869175</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008708096503901348</v>
+        <v>0.00922890977492765</v>
       </c>
       <c r="F32" t="n">
         <v>5.138912928141665E-4</v>
       </c>
       <c r="G32" t="n">
-        <v>8.726455915712262E-4</v>
+        <v>8.876304148608331E-4</v>
       </c>
       <c r="H32" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="I32" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
@@ -1833,25 +1878,25 @@
         <v>7.0</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D33" t="n">
         <v>0.0031521433792787135</v>
       </c>
       <c r="E33" t="n">
-        <v>0.008708096503901348</v>
+        <v>0.00935792565723368</v>
       </c>
       <c r="F33" t="n">
         <v>0.010628980420110226</v>
       </c>
       <c r="G33" t="n">
-        <v>0.015682102259179022</v>
+        <v>0.01602782761762653</v>
       </c>
       <c r="H33" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="I33" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="34">
@@ -1859,28 +1904,28 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="C34" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0032327434264518315</v>
+        <v>0.0033757232855807944</v>
       </c>
       <c r="E34" t="n">
-        <v>0.008708096503901348</v>
+        <v>0.009462229044271889</v>
       </c>
       <c r="F34" t="n">
-        <v>4.049237311032276E-7</v>
+        <v>0.014157748909311364</v>
       </c>
       <c r="G34" t="n">
-        <v>9.590298894550127E-7</v>
+        <v>0.021015408537259056</v>
       </c>
       <c r="H34" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I34" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
@@ -1888,28 +1933,28 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="C35" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0033757232855807944</v>
+        <v>0.003386481973739413</v>
       </c>
       <c r="E35" t="n">
-        <v>0.008708096503901348</v>
+        <v>0.009462229044271889</v>
       </c>
       <c r="F35" t="n">
-        <v>0.014157748909311364</v>
+        <v>1.117775244362452E-14</v>
       </c>
       <c r="G35" t="n">
-        <v>0.020551570997387462</v>
+        <v>3.5396216071477644E-13</v>
       </c>
       <c r="H35" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="I35" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
@@ -1917,28 +1962,28 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="C36" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D36" t="n">
-        <v>0.003386481973739413</v>
+        <v>0.0037479950555478836</v>
       </c>
       <c r="E36" t="n">
-        <v>0.008708096503901348</v>
+        <v>0.010173129436487113</v>
       </c>
       <c r="F36" t="n">
-        <v>1.117775244362452E-14</v>
+        <v>0.6767160780858787</v>
       </c>
       <c r="G36" t="n">
-        <v>3.353325733087356E-13</v>
+        <v>0.7475352025367265</v>
       </c>
       <c r="H36" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="I36" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
@@ -1946,28 +1991,28 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>5.0</v>
+        <v>11.0</v>
       </c>
       <c r="C37" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D37" t="n">
-        <v>0.003619617864273319</v>
+        <v>0.004396344824709868</v>
       </c>
       <c r="E37" t="n">
-        <v>0.009049044660683297</v>
+        <v>0.01160146550965104</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11455542411346525</v>
+        <v>0.0010601872289298059</v>
       </c>
       <c r="G37" t="n">
-        <v>0.14790378162125425</v>
+        <v>0.0017365135646264063</v>
       </c>
       <c r="H37" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="I37" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
@@ -1975,28 +2020,28 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>3.0</v>
+        <v>22.0</v>
       </c>
       <c r="C38" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0037479950555478836</v>
+        <v>0.004572388012610529</v>
       </c>
       <c r="E38" t="n">
-        <v>0.009116744729711069</v>
+        <v>0.01173991516751352</v>
       </c>
       <c r="F38" t="n">
-        <v>0.6767160780858787</v>
+        <v>1.1913576291431463E-7</v>
       </c>
       <c r="G38" t="n">
-        <v>0.742737158874745</v>
+        <v>3.5368429615187157E-7</v>
       </c>
       <c r="H38" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="I38" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
@@ -2004,28 +2049,28 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
       <c r="C39" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.004263024476994628</v>
+        <v>0.004998898566162035</v>
       </c>
       <c r="E39" t="n">
-        <v>0.00993926393746923</v>
+        <v>0.012497246415405087</v>
       </c>
       <c r="F39" t="n">
-        <v>3.0003205049071085E-6</v>
+        <v>4.7550812167726067E-7</v>
       </c>
       <c r="G39" t="n">
-        <v>6.923816549785634E-6</v>
+        <v>1.1582890143420452E-6</v>
       </c>
       <c r="H39" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="I39" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
@@ -2033,28 +2078,28 @@
         <v>46</v>
       </c>
       <c r="B40" t="n">
-        <v>70.0</v>
+        <v>69.0</v>
       </c>
       <c r="C40" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D40" t="n">
-        <v>0.004307014372903333</v>
+        <v>0.005230289745679958</v>
       </c>
       <c r="E40" t="n">
-        <v>0.00993926393746923</v>
+        <v>0.01274044938050246</v>
       </c>
       <c r="F40" t="n">
-        <v>4.8245480950077576E-8</v>
+        <v>5.4333804112755986E-8</v>
       </c>
       <c r="G40" t="n">
-        <v>1.4972735467265455E-7</v>
+        <v>1.7799004795557996E-7</v>
       </c>
       <c r="H40" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I40" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
@@ -2062,28 +2107,28 @@
         <v>47</v>
       </c>
       <c r="B41" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D41" t="n">
-        <v>0.004572388012610529</v>
+        <v>0.0056034715213377825</v>
       </c>
       <c r="E41" t="n">
-        <v>0.01028787302837369</v>
+        <v>0.013308244863177233</v>
       </c>
       <c r="F41" t="n">
-        <v>1.1913576291431463E-7</v>
+        <v>2.4373246095143394E-10</v>
       </c>
       <c r="G41" t="n">
-        <v>3.350693331965099E-7</v>
+        <v>1.5436389193590814E-9</v>
       </c>
       <c r="H41" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I41" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="42">
@@ -2091,28 +2136,28 @@
         <v>48</v>
       </c>
       <c r="B42" t="n">
-        <v>27.0</v>
+        <v>6.0</v>
       </c>
       <c r="C42" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0056034715213377825</v>
+        <v>0.0061505258545134925</v>
       </c>
       <c r="E42" t="n">
-        <v>0.012300303339521963</v>
+        <v>0.01425121844338492</v>
       </c>
       <c r="F42" t="n">
-        <v>2.4373246095143394E-10</v>
+        <v>0.07701486454322573</v>
       </c>
       <c r="G42" t="n">
-        <v>1.370995092851816E-9</v>
+        <v>0.1060349584290789</v>
       </c>
       <c r="H42" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="I42" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
@@ -2120,28 +2165,28 @@
         <v>49</v>
       </c>
       <c r="B43" t="n">
-        <v>7.0</v>
+        <v>11.0</v>
       </c>
       <c r="C43" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D43" t="n">
-        <v>0.00615010070392075</v>
+        <v>0.006434530323270452</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01287319364898173</v>
+        <v>0.014554294778826022</v>
       </c>
       <c r="F43" t="n">
-        <v>0.026148799111669344</v>
+        <v>6.182218560438748E-5</v>
       </c>
       <c r="G43" t="n">
-        <v>0.03735542730238478</v>
+        <v>1.1985933943707776E-4</v>
       </c>
       <c r="H43" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I43" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44">
@@ -2149,28 +2194,28 @@
         <v>50</v>
       </c>
       <c r="B44" t="n">
-        <v>6.0</v>
+        <v>22.0</v>
       </c>
       <c r="C44" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0061505258545134925</v>
+        <v>0.0074450233654877</v>
       </c>
       <c r="E44" t="n">
-        <v>0.01287319364898173</v>
+        <v>0.016448307435379804</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07701486454322573</v>
+        <v>8.524068139615753E-8</v>
       </c>
       <c r="G44" t="n">
-        <v>0.10193143836603405</v>
+        <v>2.699288244211655E-7</v>
       </c>
       <c r="H44" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="I44" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="45">
@@ -2178,28 +2223,28 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C45" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D45" t="n">
-        <v>0.006434530323270452</v>
+        <v>0.007947251234773548</v>
       </c>
       <c r="E45" t="n">
-        <v>0.013161539297598652</v>
+        <v>0.01692840175050787</v>
       </c>
       <c r="F45" t="n">
-        <v>6.182218560438748E-5</v>
+        <v>0.08304672541152157</v>
       </c>
       <c r="G45" t="n">
-        <v>1.1591659800822654E-4</v>
+        <v>0.11270627020135071</v>
       </c>
       <c r="H45" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="I45" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="46">
@@ -2207,28 +2252,28 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>41.0</v>
+        <v>8.0</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.006632711225775734</v>
+        <v>0.008018716618661622</v>
       </c>
       <c r="E46" t="n">
-        <v>0.013265422451551469</v>
+        <v>0.01692840175050787</v>
       </c>
       <c r="F46" t="n">
-        <v>3.064399383430222E-7</v>
+        <v>0.031194605623678887</v>
       </c>
       <c r="G46" t="n">
-        <v>7.660998458575556E-7</v>
+        <v>0.04559211591153068</v>
       </c>
       <c r="H46" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="I46" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
@@ -2236,28 +2281,28 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>22.0</v>
+        <v>40.0</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0074450233654877</v>
+        <v>0.008561180626617003</v>
       </c>
       <c r="E47" t="n">
-        <v>0.014566350062910719</v>
+        <v>0.01741340679339692</v>
       </c>
       <c r="F47" t="n">
-        <v>8.524068139615753E-8</v>
+        <v>4.0597603499324386E-7</v>
       </c>
       <c r="G47" t="n">
-        <v>2.557220441884726E-7</v>
+        <v>1.0149400874831095E-6</v>
       </c>
       <c r="H47" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="I47" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="48">
@@ -2265,28 +2310,28 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>359.0</v>
+        <v>356.0</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008712297776135235</v>
+        <v>0.008766109123177934</v>
       </c>
       <c r="E48" t="n">
-        <v>0.016496911699007608</v>
+        <v>0.01741340679339692</v>
       </c>
       <c r="F48" t="n">
-        <v>6.781645014828443E-15</v>
+        <v>7.362312608109805E-15</v>
       </c>
       <c r="G48" t="n">
-        <v>3.051740256672799E-13</v>
+        <v>3.4970984888521574E-13</v>
       </c>
       <c r="H48" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="I48" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
@@ -2297,25 +2342,25 @@
         <v>4.0</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D49" t="n">
         <v>0.008798352906137391</v>
       </c>
       <c r="E49" t="n">
-        <v>0.016496911699007608</v>
+        <v>0.01741340679339692</v>
       </c>
       <c r="F49" t="n">
         <v>0.4319876303607952</v>
       </c>
       <c r="G49" t="n">
-        <v>0.49844726580091747</v>
+        <v>0.4944436733045246</v>
       </c>
       <c r="H49" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="I49" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="50">
@@ -2323,28 +2368,28 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>12.0</v>
+        <v>14.0</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>0.017385319688664948</v>
+        <v>0.009107724701045738</v>
       </c>
       <c r="E50" t="n">
-        <v>0.031932219836323376</v>
+        <v>0.01765783360406827</v>
       </c>
       <c r="F50" t="n">
-        <v>8.55568800672618E-4</v>
+        <v>1.292922206941415E-5</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0014000216738279203</v>
+        <v>2.7915365831689645E-5</v>
       </c>
       <c r="H50" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="I50" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="51">
@@ -2352,28 +2397,28 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>21.0</v>
+        <v>12.0</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>0.033086975095107184</v>
+        <v>0.017385319688664948</v>
       </c>
       <c r="E51" t="n">
-        <v>0.05955655517119293</v>
+        <v>0.0330321074084634</v>
       </c>
       <c r="F51" t="n">
-        <v>3.730539327045108E-7</v>
+        <v>8.55568800672618E-4</v>
       </c>
       <c r="G51" t="n">
-        <v>9.074284849569182E-7</v>
+        <v>0.00142594800112103</v>
       </c>
       <c r="H51" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="I51" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="52">
@@ -2381,28 +2426,28 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="C52" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D52" t="n">
-        <v>0.037135891281398714</v>
+        <v>0.018861885769264723</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0655339257907036</v>
+        <v>0.03503670314886564</v>
       </c>
       <c r="F52" t="n">
-        <v>5.414213489867829E-11</v>
+        <v>0.47797751236547664</v>
       </c>
       <c r="G52" t="n">
-        <v>4.0606601174008716E-10</v>
+        <v>0.5405698056514319</v>
       </c>
       <c r="H52" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="I52" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="53">
@@ -2410,28 +2455,28 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>17.0</v>
+        <v>3.0</v>
       </c>
       <c r="C53" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D53" t="n">
-        <v>0.03901400941699565</v>
+        <v>0.01917798488148435</v>
       </c>
       <c r="E53" t="n">
-        <v>0.06752424706787709</v>
+        <v>0.03503670314886564</v>
       </c>
       <c r="F53" t="n">
-        <v>9.960848768380203E-11</v>
+        <v>0.8693225699414361</v>
       </c>
       <c r="G53" t="n">
-        <v>6.403402779672988E-10</v>
+        <v>0.8880176789724347</v>
       </c>
       <c r="H53" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="I53" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="54">
@@ -2439,28 +2484,28 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C54" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.043455252678367015</v>
+        <v>0.020234582679627227</v>
       </c>
       <c r="E54" t="n">
-        <v>0.07379193851043456</v>
+        <v>0.036269534991784654</v>
       </c>
       <c r="F54" t="n">
-        <v>0.5271523387500442</v>
+        <v>0.08511169949149121</v>
       </c>
       <c r="G54" t="n">
-        <v>0.6005532973101769</v>
+        <v>0.11388185143227697</v>
       </c>
       <c r="H54" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="I54" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="55">
@@ -2468,28 +2513,28 @@
         <v>61</v>
       </c>
       <c r="B55" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="C55" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.04725815660644215</v>
+        <v>0.02810292348720286</v>
       </c>
       <c r="E55" t="n">
-        <v>0.07876359434407025</v>
+        <v>0.04944032835711614</v>
       </c>
       <c r="F55" t="n">
-        <v>1.0401877190720964E-4</v>
+        <v>0.1806603457328042</v>
       </c>
       <c r="G55" t="n">
-        <v>1.8723378943297735E-4</v>
+        <v>0.22289263434566753</v>
       </c>
       <c r="H55" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="I55" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56">
@@ -2497,28 +2542,28 @@
         <v>62</v>
       </c>
       <c r="B56" t="n">
-        <v>2.0</v>
+        <v>21.0</v>
       </c>
       <c r="C56" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D56" t="n">
-        <v>0.05762537488347722</v>
+        <v>0.033086975095107184</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09429606799114455</v>
+        <v>0.05715022970973059</v>
       </c>
       <c r="F56" t="n">
-        <v>0.846600400475717</v>
+        <v>3.730539327045108E-7</v>
       </c>
       <c r="G56" t="n">
-        <v>0.865841318668347</v>
+        <v>9.57841178565636E-7</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I56" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="57">
@@ -2526,28 +2571,28 @@
         <v>63</v>
       </c>
       <c r="B57" t="n">
-        <v>3.0</v>
+        <v>13.0</v>
       </c>
       <c r="C57" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08592836038962977</v>
+        <v>0.037135891281398714</v>
       </c>
       <c r="E57" t="n">
-        <v>0.13809915062619071</v>
+        <v>0.06299838699522996</v>
       </c>
       <c r="F57" t="n">
-        <v>0.38715771526654613</v>
+        <v>5.414213489867829E-11</v>
       </c>
       <c r="G57" t="n">
-        <v>0.4598120712078438</v>
+        <v>4.675911650340398E-10</v>
       </c>
       <c r="H57" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="I57" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="58">
@@ -2555,28 +2600,28 @@
         <v>64</v>
       </c>
       <c r="B58" t="n">
-        <v>54.0</v>
+        <v>17.0</v>
       </c>
       <c r="C58" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09291944262751066</v>
+        <v>0.03901400941699565</v>
       </c>
       <c r="E58" t="n">
-        <v>0.14671490941185894</v>
+        <v>0.06502334902832609</v>
       </c>
       <c r="F58" t="n">
-        <v>2.906556629106168E-10</v>
+        <v>9.960848768380203E-11</v>
       </c>
       <c r="G58" t="n">
-        <v>1.453278314553084E-9</v>
+        <v>7.279081792277841E-10</v>
       </c>
       <c r="H58" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="I58" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="59">
@@ -2584,28 +2629,28 @@
         <v>65</v>
       </c>
       <c r="B59" t="n">
-        <v>12.0</v>
+        <v>3.0</v>
       </c>
       <c r="C59" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09743344531202157</v>
+        <v>0.043455252678367015</v>
       </c>
       <c r="E59" t="n">
-        <v>0.15118982893244726</v>
+        <v>0.07117670697318736</v>
       </c>
       <c r="F59" t="n">
-        <v>2.0722147344809544E-9</v>
+        <v>0.5271523387500442</v>
       </c>
       <c r="G59" t="n">
-        <v>8.477242095603904E-9</v>
+        <v>0.5891702609559317</v>
       </c>
       <c r="H59" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I59" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="60">
@@ -2613,28 +2658,28 @@
         <v>66</v>
       </c>
       <c r="B60" t="n">
-        <v>5.0</v>
+        <v>7.0</v>
       </c>
       <c r="C60" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D60" t="n">
-        <v>0.10066983260828934</v>
+        <v>0.04725815660644215</v>
       </c>
       <c r="E60" t="n">
-        <v>0.15356415143637356</v>
+        <v>0.07537534713806765</v>
       </c>
       <c r="F60" t="n">
-        <v>0.06416812212814756</v>
+        <v>1.0401877190720964E-4</v>
       </c>
       <c r="G60" t="n">
-        <v>0.08884816910051199</v>
+        <v>1.9003429483047915E-4</v>
       </c>
       <c r="H60" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="I60" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="61">
@@ -2642,28 +2687,28 @@
         <v>67</v>
       </c>
       <c r="B61" t="n">
-        <v>10.0</v>
+        <v>55.0</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D61" t="n">
-        <v>0.10886908430120128</v>
+        <v>0.0476054824029901</v>
       </c>
       <c r="E61" t="n">
-        <v>0.1633036264518019</v>
+        <v>0.07537534713806765</v>
       </c>
       <c r="F61" t="n">
-        <v>4.5572309932566117E-11</v>
+        <v>3.1363984923206984E-10</v>
       </c>
       <c r="G61" t="n">
-        <v>3.7286435399372274E-10</v>
+        <v>1.7526932751203902E-9</v>
       </c>
       <c r="H61" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I61" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="62">
@@ -2674,25 +2719,25 @@
         <v>2.0</v>
       </c>
       <c r="C62" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D62" t="n">
-        <v>0.11487088506296672</v>
+        <v>0.05762537488347722</v>
       </c>
       <c r="E62" t="n">
-        <v>0.1694816336994591</v>
+        <v>0.08974443629393994</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9179053087942106</v>
+        <v>0.846600400475717</v>
       </c>
       <c r="G62" t="n">
-        <v>0.9282188515896512</v>
+        <v>0.8742069352738382</v>
       </c>
       <c r="H62" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="I62" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="63">
@@ -2700,28 +2745,28 @@
         <v>69</v>
       </c>
       <c r="B63" t="n">
-        <v>29.0</v>
+        <v>3.0</v>
       </c>
       <c r="C63" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D63" t="n">
-        <v>0.12302684802148858</v>
+        <v>0.08592836038962977</v>
       </c>
       <c r="E63" t="n">
-        <v>0.1785873600311931</v>
+        <v>0.1316644231776585</v>
       </c>
       <c r="F63" t="n">
-        <v>2.837028767854812E-8</v>
+        <v>0.38715771526654613</v>
       </c>
       <c r="G63" t="n">
-        <v>9.45676255951604E-8</v>
+        <v>0.4553968661345175</v>
       </c>
       <c r="H63" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="I63" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="64">
@@ -2729,28 +2774,28 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D64" t="n">
-        <v>0.1482871392147616</v>
+        <v>0.10066983260828934</v>
       </c>
       <c r="E64" t="n">
-        <v>0.2090706251808017</v>
+        <v>0.15180371583789662</v>
       </c>
       <c r="F64" t="n">
-        <v>0.7612055429583258</v>
+        <v>0.06416812212814756</v>
       </c>
       <c r="G64" t="n">
-        <v>0.8059823396029332</v>
+        <v>0.09098465077871669</v>
       </c>
       <c r="H64" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="I64" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="65">
@@ -2758,28 +2803,28 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>6.0</v>
+        <v>12.0</v>
       </c>
       <c r="C65" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.14867244457301454</v>
+        <v>0.10784853602783971</v>
       </c>
       <c r="E65" t="n">
-        <v>0.2090706251808017</v>
+        <v>0.15831465056272812</v>
       </c>
       <c r="F65" t="n">
-        <v>0.12126957835703664</v>
+        <v>1.2592606693140442E-8</v>
       </c>
       <c r="G65" t="n">
-        <v>0.1537220007342718</v>
+        <v>4.785190543393368E-8</v>
       </c>
       <c r="H65" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I65" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="66">
@@ -2787,28 +2832,28 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>4.0</v>
+        <v>9.0</v>
       </c>
       <c r="C66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.1942718595734828</v>
+        <v>0.10832055038502451</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2684905981640109</v>
+        <v>0.15831465056272812</v>
       </c>
       <c r="F66" t="n">
-        <v>0.56013544435185</v>
+        <v>1.1778863890889021E-9</v>
       </c>
       <c r="G66" t="n">
-        <v>0.6223727159465</v>
+        <v>5.613529116087164E-9</v>
       </c>
       <c r="H66" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="I66" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67">
@@ -2819,25 +2864,25 @@
         <v>2.0</v>
       </c>
       <c r="C67" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>0.19850892793423436</v>
+        <v>0.11487088506296672</v>
       </c>
       <c r="E67" t="n">
-        <v>0.2684905981640109</v>
+        <v>0.1653444557724521</v>
       </c>
       <c r="F67" t="n">
-        <v>1.0</v>
+        <v>0.9179053087942106</v>
       </c>
       <c r="G67" t="n">
-        <v>1.0</v>
+        <v>0.9276702588877661</v>
       </c>
       <c r="H67" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I67" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="68">
@@ -2845,28 +2890,28 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>4.0</v>
+        <v>29.0</v>
       </c>
       <c r="C68" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2010940252559676</v>
+        <v>0.12302684802148858</v>
       </c>
       <c r="E68" t="n">
-        <v>0.2684905981640109</v>
+        <v>0.17444105316479724</v>
       </c>
       <c r="F68" t="n">
-        <v>0.051699593633435376</v>
+        <v>2.837028767854812E-8</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0727025535470185</v>
+        <v>9.982138257266931E-8</v>
       </c>
       <c r="H68" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="I68" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69">
@@ -2874,28 +2919,28 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="C69" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D69" t="n">
-        <v>0.20285956305725267</v>
+        <v>0.1482871392147616</v>
       </c>
       <c r="E69" t="n">
-        <v>0.2684905981640109</v>
+        <v>0.20248472926750233</v>
       </c>
       <c r="F69" t="n">
-        <v>0.41985827206107407</v>
+        <v>0.7612055429583258</v>
       </c>
       <c r="G69" t="n">
-        <v>0.49074343487658006</v>
+        <v>0.8125227705734938</v>
       </c>
       <c r="H69" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I69" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="70">
@@ -2903,28 +2948,28 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D70" t="n">
-        <v>0.22129155469517064</v>
+        <v>0.14867244457301454</v>
       </c>
       <c r="E70" t="n">
-        <v>0.28864115829804865</v>
+        <v>0.20248472926750233</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1339273643836148</v>
+        <v>0.12126957835703664</v>
       </c>
       <c r="G70" t="n">
-        <v>0.16740920547951849</v>
+        <v>0.15781657457422577</v>
       </c>
       <c r="H70" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="I70" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="71">
@@ -2932,28 +2977,28 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>15.0</v>
+        <v>5.0</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D71" t="n">
-        <v>0.2391210039446391</v>
+        <v>0.14919927419710696</v>
       </c>
       <c r="E71" t="n">
-        <v>0.30744129078596455</v>
+        <v>0.20248472926750233</v>
       </c>
       <c r="F71" t="n">
-        <v>1.2982973992946339E-7</v>
+        <v>0.2769884173377466</v>
       </c>
       <c r="G71" t="n">
-        <v>3.5408110889853647E-7</v>
+        <v>0.3373576877831529</v>
       </c>
       <c r="H71" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="I71" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72">
@@ -2961,28 +3006,28 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>9.0</v>
+        <v>21.0</v>
       </c>
       <c r="C72" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D72" t="n">
-        <v>0.24688073552915224</v>
+        <v>0.1843800691600711</v>
       </c>
       <c r="E72" t="n">
-        <v>0.31294741123413666</v>
+        <v>0.2467057263409402</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0758333651020006</v>
+        <v>5.229563870949087E-9</v>
       </c>
       <c r="G72" t="n">
-        <v>0.10186571431612022</v>
+        <v>2.365755084476968E-8</v>
       </c>
       <c r="H72" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="I72" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73">
@@ -2990,28 +3035,28 @@
         <v>79</v>
       </c>
       <c r="B73" t="n">
-        <v>47.0</v>
+        <v>2.0</v>
       </c>
       <c r="C73" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D73" t="n">
-        <v>0.2504787968023583</v>
+        <v>0.19850892793423436</v>
       </c>
       <c r="E73" t="n">
-        <v>0.31309849600294787</v>
+        <v>0.2616977041002318</v>
       </c>
       <c r="F73" t="n">
-        <v>8.36287978674257E-13</v>
+        <v>1.0</v>
       </c>
       <c r="G73" t="n">
-        <v>1.5053183616136625E-11</v>
+        <v>1.0</v>
       </c>
       <c r="H73" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I73" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74">
@@ -3019,28 +3064,28 @@
         <v>80</v>
       </c>
       <c r="B74" t="n">
-        <v>116.0</v>
+        <v>4.0</v>
       </c>
       <c r="C74" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D74" t="n">
-        <v>0.2660655712021343</v>
+        <v>0.2010940252559676</v>
       </c>
       <c r="E74" t="n">
-        <v>0.32802604668756286</v>
+        <v>0.2616977041002318</v>
       </c>
       <c r="F74" t="n">
-        <v>1.5184025821288957E-14</v>
+        <v>0.051699593633435376</v>
       </c>
       <c r="G74" t="n">
-        <v>3.4164058097900154E-13</v>
+        <v>0.07441608174509638</v>
       </c>
       <c r="H74" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="I74" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75">
@@ -3048,28 +3093,28 @@
         <v>81</v>
       </c>
       <c r="B75" t="n">
-        <v>13.0</v>
+        <v>5.0</v>
       </c>
       <c r="C75" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D75" t="n">
-        <v>0.31472519379316466</v>
+        <v>0.22129155469517064</v>
       </c>
       <c r="E75" t="n">
-        <v>0.3827738843430381</v>
+        <v>0.2840905094059623</v>
       </c>
       <c r="F75" t="n">
-        <v>1.0821056379160116E-7</v>
+        <v>0.1339273643836148</v>
       </c>
       <c r="G75" t="n">
-        <v>3.14159701330455E-7</v>
+        <v>0.17193377860058656</v>
       </c>
       <c r="H75" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="I75" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="76">
@@ -3077,28 +3122,28 @@
         <v>82</v>
       </c>
       <c r="B76" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
       <c r="C76" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D76" t="n">
-        <v>0.34821400196916896</v>
+        <v>0.2391210039446391</v>
       </c>
       <c r="E76" t="n">
-        <v>0.41785680236300277</v>
+        <v>0.30288660499654285</v>
       </c>
       <c r="F76" t="n">
-        <v>8.821242680524196E-9</v>
+        <v>1.2982973992946339E-7</v>
       </c>
       <c r="G76" t="n">
-        <v>3.3079660051965736E-8</v>
+        <v>3.737522816151219E-7</v>
       </c>
       <c r="H76" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="I76" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="77">
@@ -3106,28 +3151,28 @@
         <v>83</v>
       </c>
       <c r="B77" t="n">
-        <v>29.0</v>
+        <v>9.0</v>
       </c>
       <c r="C77" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D77" t="n">
-        <v>0.3841685709235133</v>
+        <v>0.24688073552915224</v>
       </c>
       <c r="E77" t="n">
-        <v>0.45493646556731837</v>
+        <v>0.3086009194114403</v>
       </c>
       <c r="F77" t="n">
-        <v>1.0401143348210871E-8</v>
+        <v>0.0758333651020006</v>
       </c>
       <c r="G77" t="n">
-        <v>3.7444116053559136E-8</v>
+        <v>0.10594367183367731</v>
       </c>
       <c r="H77" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="I77" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78">
@@ -3135,28 +3180,28 @@
         <v>84</v>
       </c>
       <c r="B78" t="n">
-        <v>9.0</v>
+        <v>119.0</v>
       </c>
       <c r="C78" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D78" t="n">
-        <v>0.4147894394180811</v>
+        <v>0.3122479504360068</v>
       </c>
       <c r="E78" t="n">
-        <v>0.484818825293861</v>
+        <v>0.3833191462865467</v>
       </c>
       <c r="F78" t="n">
-        <v>0.14036996685834688</v>
+        <v>3.485514289977233E-14</v>
       </c>
       <c r="G78" t="n">
-        <v>0.1730588632500167</v>
+        <v>8.278096438695929E-13</v>
       </c>
       <c r="H78" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="I78" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="79">
@@ -3164,28 +3209,28 @@
         <v>85</v>
       </c>
       <c r="B79" t="n">
-        <v>8.0</v>
+        <v>13.0</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.4323941085060722</v>
+        <v>0.31472519379316466</v>
       </c>
       <c r="E79" t="n">
-        <v>0.49891627904546787</v>
+        <v>0.3833191462865467</v>
       </c>
       <c r="F79" t="n">
-        <v>3.2785083047552244E-6</v>
+        <v>1.0821056379160052E-7</v>
       </c>
       <c r="G79" t="n">
-        <v>7.376643685699255E-6</v>
+        <v>3.3161301807103386E-7</v>
       </c>
       <c r="H79" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="I79" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="80">
@@ -3193,28 +3238,28 @@
         <v>86</v>
       </c>
       <c r="B80" t="n">
-        <v>37.0</v>
+        <v>46.0</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D80" t="n">
-        <v>0.4791348250095414</v>
+        <v>0.3403674519972246</v>
       </c>
       <c r="E80" t="n">
-        <v>0.5458498006437814</v>
+        <v>0.4093026321485612</v>
       </c>
       <c r="F80" t="n">
-        <v>1.378903297018502E-11</v>
+        <v>1.0185525267974198E-12</v>
       </c>
       <c r="G80" t="n">
-        <v>1.2410129673166518E-10</v>
+        <v>1.9352498009150977E-11</v>
       </c>
       <c r="H80" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="I80" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81">
@@ -3222,28 +3267,28 @@
         <v>87</v>
       </c>
       <c r="B81" t="n">
-        <v>12.0</v>
+        <v>20.0</v>
       </c>
       <c r="C81" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D81" t="n">
-        <v>0.5199079569527718</v>
+        <v>0.34821400196916896</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5848964515718683</v>
+        <v>0.41350412733838815</v>
       </c>
       <c r="F81" t="n">
-        <v>1.1637116034455048E-5</v>
+        <v>8.821242680524196E-9</v>
       </c>
       <c r="G81" t="n">
-        <v>2.4356754490719872E-5</v>
+        <v>3.64355675934695E-8</v>
       </c>
       <c r="H81" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I81" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82">
@@ -3251,28 +3296,28 @@
         <v>88</v>
       </c>
       <c r="B82" t="n">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
       <c r="C82" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D82" t="n">
-        <v>0.6191297062554759</v>
+        <v>0.3841685709235133</v>
       </c>
       <c r="E82" t="n">
-        <v>0.6879218958394178</v>
+        <v>0.4505680770090589</v>
       </c>
       <c r="F82" t="n">
-        <v>0.5565463016781446</v>
+        <v>1.0401143348210871E-8</v>
       </c>
       <c r="G82" t="n">
-        <v>0.6223727159465</v>
+        <v>4.1171192420001367E-8</v>
       </c>
       <c r="H82" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="I82" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83">
@@ -3280,28 +3325,28 @@
         <v>89</v>
       </c>
       <c r="B83" t="n">
-        <v>3.0</v>
+        <v>9.0</v>
       </c>
       <c r="C83" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D83" t="n">
-        <v>0.6417531654763129</v>
+        <v>0.4147894394180811</v>
       </c>
       <c r="E83" t="n">
-        <v>0.7025914922904931</v>
+        <v>0.48054874078924026</v>
       </c>
       <c r="F83" t="n">
-        <v>0.7739739115198937</v>
+        <v>0.14036996685834688</v>
       </c>
       <c r="G83" t="n">
-        <v>0.8099726981022144</v>
+        <v>0.1778019580205727</v>
       </c>
       <c r="H83" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="I83" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84">
@@ -3309,28 +3354,28 @@
         <v>90</v>
       </c>
       <c r="B84" t="n">
-        <v>19.0</v>
+        <v>8.0</v>
       </c>
       <c r="C84" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D84" t="n">
-        <v>0.6479454873345659</v>
+        <v>0.4323941085060722</v>
       </c>
       <c r="E84" t="n">
-        <v>0.7025914922904931</v>
+        <v>0.49490891937442</v>
       </c>
       <c r="F84" t="n">
-        <v>1.1817956033867715E-9</v>
+        <v>3.2785083047552244E-6</v>
       </c>
       <c r="G84" t="n">
-        <v>5.318080215240472E-9</v>
+        <v>7.786457223793658E-6</v>
       </c>
       <c r="H84" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="I84" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85">
@@ -3338,28 +3383,28 @@
         <v>91</v>
       </c>
       <c r="B85" t="n">
-        <v>11.0</v>
+        <v>5.0</v>
       </c>
       <c r="C85" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D85" t="n">
-        <v>0.7091381145254562</v>
+        <v>0.4629347075084118</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7542475199237176</v>
+        <v>0.5235571096821324</v>
       </c>
       <c r="F85" t="n">
-        <v>2.2624120250829122E-7</v>
+        <v>0.14358419693619004</v>
       </c>
       <c r="G85" t="n">
-        <v>5.817630921641775E-7</v>
+        <v>0.17948024617023756</v>
       </c>
       <c r="H85" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="I85" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="86">
@@ -3367,28 +3412,28 @@
         <v>92</v>
       </c>
       <c r="B86" t="n">
-        <v>11.0</v>
+        <v>37.0</v>
       </c>
       <c r="C86" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D86" t="n">
-        <v>0.7123448799279556</v>
+        <v>0.4791348250095414</v>
       </c>
       <c r="E86" t="n">
-        <v>0.7542475199237176</v>
+        <v>0.5355036279518404</v>
       </c>
       <c r="F86" t="n">
-        <v>7.490468200552098E-4</v>
+        <v>1.378903297018502E-11</v>
       </c>
       <c r="G86" t="n">
-        <v>0.001248411366758683</v>
+        <v>1.3099581321675768E-10</v>
       </c>
       <c r="H86" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="I86" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87">
@@ -3396,28 +3441,28 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>20.0</v>
+        <v>12.0</v>
       </c>
       <c r="C87" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D87" t="n">
-        <v>0.7611549102341958</v>
+        <v>0.5199079569527718</v>
       </c>
       <c r="E87" t="n">
-        <v>0.793799593022146</v>
+        <v>0.5743169291920154</v>
       </c>
       <c r="F87" t="n">
-        <v>1.5100855845875295E-9</v>
+        <v>1.1637116034455048E-5</v>
       </c>
       <c r="G87" t="n">
-        <v>6.471795362517983E-9</v>
+        <v>2.5709907517982082E-5</v>
       </c>
       <c r="H87" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="I87" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="88">
@@ -3425,28 +3470,28 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>16.0</v>
+        <v>3.0</v>
       </c>
       <c r="C88" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D88" t="n">
-        <v>0.7702714672006102</v>
+        <v>0.6417531654763129</v>
       </c>
       <c r="E88" t="n">
-        <v>0.793799593022146</v>
+        <v>0.6994866056452701</v>
       </c>
       <c r="F88" t="n">
-        <v>8.267265126514859E-11</v>
+        <v>0.7739739115198937</v>
       </c>
       <c r="G88" t="n">
-        <v>5.723491241433364E-10</v>
+        <v>0.8169724621598878</v>
       </c>
       <c r="H88" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="I88" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89">
@@ -3454,28 +3499,28 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>3.0</v>
+        <v>19.0</v>
       </c>
       <c r="C89" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="D89" t="n">
-        <v>0.7761596020660984</v>
+        <v>0.6479454873345659</v>
       </c>
       <c r="E89" t="n">
-        <v>0.793799593022146</v>
+        <v>0.6994866056452701</v>
       </c>
       <c r="F89" t="n">
-        <v>0.11503627459430886</v>
+        <v>1.1817956033867715E-9</v>
       </c>
       <c r="G89" t="n">
-        <v>0.14790378162125425</v>
+        <v>5.613529116087164E-9</v>
       </c>
       <c r="H89" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="I89" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90">
@@ -3483,28 +3528,28 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>21.0</v>
+        <v>11.0</v>
       </c>
       <c r="C90" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D90" t="n">
-        <v>0.8748932405057397</v>
+        <v>0.7091381145254562</v>
       </c>
       <c r="E90" t="n">
-        <v>0.8847235016350177</v>
+        <v>0.7519195954795087</v>
       </c>
       <c r="F90" t="n">
-        <v>1.7684340416739602E-7</v>
+        <v>2.2624120250829122E-7</v>
       </c>
       <c r="G90" t="n">
-        <v>4.681148933842836E-7</v>
+        <v>5.970253955079907E-7</v>
       </c>
       <c r="H90" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="I90" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91">
@@ -3512,28 +3557,173 @@
         <v>97</v>
       </c>
       <c r="B91" t="n">
+        <v>11.0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>104</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.7123448799279556</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.7519195954795087</v>
+      </c>
+      <c r="F91" t="n">
+        <v>7.490468200552098E-4</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.0012707044268793738</v>
+      </c>
+      <c r="H91" t="s">
+        <v>193</v>
+      </c>
+      <c r="I91" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" t="n">
+        <v>16.0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>104</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.7702714672006102</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.8014691543073841</v>
+      </c>
+      <c r="F92" t="n">
+        <v>8.267265126514859E-11</v>
+      </c>
+      <c r="G92" t="n">
+        <v>6.544918225157597E-10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>194</v>
+      </c>
+      <c r="I92" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>99</v>
+      </c>
+      <c r="B93" t="n">
         <v>3.0</v>
       </c>
-      <c r="C91" t="s">
-        <v>99</v>
-      </c>
-      <c r="D91" t="n">
+      <c r="C93" t="s">
+        <v>103</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.7761596020660984</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.8014691543073841</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.11503627459430886</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.15178397342304642</v>
+      </c>
+      <c r="H93" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.8748932405057397</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.8937081489037125</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.7684340416739602E-7</v>
+      </c>
+      <c r="G94" t="n">
+        <v>4.941212763500771E-7</v>
+      </c>
+      <c r="H94" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>101</v>
+      </c>
+      <c r="B95" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>103</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.9233224283164921</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.9331450073411357</v>
+      </c>
+      <c r="F95" t="n">
+        <v>8.108703848814856E-5</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.5104448345831594E-4</v>
+      </c>
+      <c r="H95" t="s">
+        <v>197</v>
+      </c>
+      <c r="I95" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" t="n">
         <v>0.9581162074353629</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E96" t="n">
         <v>0.9581162074353629</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F96" t="n">
         <v>0.7849187633780849</v>
       </c>
-      <c r="G91" t="n">
-        <v>0.8119849276325016</v>
-      </c>
-      <c r="H91" t="s">
-        <v>188</v>
-      </c>
-      <c r="I91" t="s">
-        <v>278</v>
+      <c r="G96" t="n">
+        <v>0.8194206870430557</v>
+      </c>
+      <c r="H96" t="s">
+        <v>198</v>
+      </c>
+      <c r="I96" t="s">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/KEGG_raw_data/PNA79_16h_vs_PNAscr_16h_KEGG_FNN_16h.xlsx
+++ b/analysis/KEGG_raw_data/PNA79_16h_vs_PNAscr_16h_KEGG_FNN_16h.xlsx
@@ -131,75 +131,75 @@
     <t>fnu02060</t>
   </si>
   <si>
+    <t>fnu00521</t>
+  </si>
+  <si>
+    <t>fnu01232</t>
+  </si>
+  <si>
+    <t>fnu00630</t>
+  </si>
+  <si>
+    <t>fnu00720</t>
+  </si>
+  <si>
+    <t>fnu00520</t>
+  </si>
+  <si>
+    <t>fnu00650</t>
+  </si>
+  <si>
+    <t>fnu01503</t>
+  </si>
+  <si>
+    <t>fnu01120</t>
+  </si>
+  <si>
+    <t>fnu01250</t>
+  </si>
+  <si>
+    <t>fnu00362</t>
+  </si>
+  <si>
+    <t>fnu00061</t>
+  </si>
+  <si>
+    <t>fnu00010</t>
+  </si>
+  <si>
+    <t>fnu00640</t>
+  </si>
+  <si>
+    <t>fnu01200</t>
+  </si>
+  <si>
+    <t>fnu00910</t>
+  </si>
+  <si>
+    <t>fnu01212</t>
+  </si>
+  <si>
+    <t>fnu01100</t>
+  </si>
+  <si>
+    <t>fnu00310</t>
+  </si>
+  <si>
+    <t>fnu00280</t>
+  </si>
+  <si>
+    <t>fnu00410</t>
+  </si>
+  <si>
+    <t>fnu04981</t>
+  </si>
+  <si>
+    <t>fnu00071</t>
+  </si>
+  <si>
     <t>fnu00561</t>
   </si>
   <si>
-    <t>fnu00521</t>
-  </si>
-  <si>
-    <t>fnu01232</t>
-  </si>
-  <si>
-    <t>fnu00630</t>
-  </si>
-  <si>
-    <t>fnu00720</t>
-  </si>
-  <si>
-    <t>fnu00520</t>
-  </si>
-  <si>
-    <t>fnu00650</t>
-  </si>
-  <si>
-    <t>fnu01120</t>
-  </si>
-  <si>
-    <t>fnu01250</t>
-  </si>
-  <si>
-    <t>fnu00362</t>
-  </si>
-  <si>
-    <t>fnu00061</t>
-  </si>
-  <si>
-    <t>fnu00010</t>
-  </si>
-  <si>
-    <t>fnu01503</t>
-  </si>
-  <si>
-    <t>fnu00640</t>
-  </si>
-  <si>
-    <t>fnu01200</t>
-  </si>
-  <si>
-    <t>fnu01100</t>
-  </si>
-  <si>
-    <t>fnu00910</t>
-  </si>
-  <si>
-    <t>fnu01212</t>
-  </si>
-  <si>
-    <t>fnu00310</t>
-  </si>
-  <si>
-    <t>fnu00280</t>
-  </si>
-  <si>
-    <t>fnu00410</t>
-  </si>
-  <si>
-    <t>fnu04981</t>
-  </si>
-  <si>
-    <t>fnu00071</t>
-  </si>
-  <si>
     <t>fnu00620</t>
   </si>
   <si>
@@ -224,6 +224,9 @@
     <t>fnu01210</t>
   </si>
   <si>
+    <t>fnu02020</t>
+  </si>
+  <si>
     <t>fnu04122</t>
   </si>
   <si>
@@ -248,9 +251,6 @@
     <t>fnu00220</t>
   </si>
   <si>
-    <t>fnu02020</t>
-  </si>
-  <si>
     <t>fnu00552</t>
   </si>
   <si>
@@ -293,6 +293,9 @@
     <t>fnu01230</t>
   </si>
   <si>
+    <t>fnu01501</t>
+  </si>
+  <si>
     <t>fnu00500</t>
   </si>
   <si>
@@ -317,9 +320,6 @@
     <t>fnu00240</t>
   </si>
   <si>
-    <t>fnu01501</t>
-  </si>
-  <si>
     <t>fnu00523</t>
   </si>
   <si>
@@ -419,75 +419,75 @@
     <t>Phosphotransferase system (PTS)</t>
   </si>
   <si>
+    <t>Streptomycin biosynthesis</t>
+  </si>
+  <si>
+    <t>Nucleotide metabolism</t>
+  </si>
+  <si>
+    <t>Glyoxylate and dicarboxylate metabolism</t>
+  </si>
+  <si>
+    <t>Other carbon fixation pathways</t>
+  </si>
+  <si>
+    <t>Amino sugar and nucleotide sugar metabolism</t>
+  </si>
+  <si>
+    <t>Butanoate metabolism</t>
+  </si>
+  <si>
+    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
+  </si>
+  <si>
+    <t>Microbial metabolism in diverse environments</t>
+  </si>
+  <si>
+    <t>Biosynthesis of nucleotide sugars</t>
+  </si>
+  <si>
+    <t>Benzoate degradation</t>
+  </si>
+  <si>
+    <t>Fatty acid biosynthesis</t>
+  </si>
+  <si>
+    <t>Glycolysis / Gluconeogenesis</t>
+  </si>
+  <si>
+    <t>Propanoate metabolism</t>
+  </si>
+  <si>
+    <t>Carbon metabolism</t>
+  </si>
+  <si>
+    <t>Nitrogen metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid metabolism</t>
+  </si>
+  <si>
+    <t>Metabolic pathways</t>
+  </si>
+  <si>
+    <t>Lysine degradation</t>
+  </si>
+  <si>
+    <t>Valine, leucine and isoleucine degradation</t>
+  </si>
+  <si>
+    <t>beta-Alanine metabolism</t>
+  </si>
+  <si>
+    <t>Folate transport and metabolism</t>
+  </si>
+  <si>
+    <t>Fatty acid degradation</t>
+  </si>
+  <si>
     <t>Glycerolipid metabolism</t>
   </si>
   <si>
-    <t>Streptomycin biosynthesis</t>
-  </si>
-  <si>
-    <t>Nucleotide metabolism</t>
-  </si>
-  <si>
-    <t>Glyoxylate and dicarboxylate metabolism</t>
-  </si>
-  <si>
-    <t>Other carbon fixation pathways</t>
-  </si>
-  <si>
-    <t>Amino sugar and nucleotide sugar metabolism</t>
-  </si>
-  <si>
-    <t>Butanoate metabolism</t>
-  </si>
-  <si>
-    <t>Microbial metabolism in diverse environments</t>
-  </si>
-  <si>
-    <t>Biosynthesis of nucleotide sugars</t>
-  </si>
-  <si>
-    <t>Benzoate degradation</t>
-  </si>
-  <si>
-    <t>Fatty acid biosynthesis</t>
-  </si>
-  <si>
-    <t>Glycolysis / Gluconeogenesis</t>
-  </si>
-  <si>
-    <t>Cationic antimicrobial peptide (CAMP) resistance</t>
-  </si>
-  <si>
-    <t>Propanoate metabolism</t>
-  </si>
-  <si>
-    <t>Carbon metabolism</t>
-  </si>
-  <si>
-    <t>Metabolic pathways</t>
-  </si>
-  <si>
-    <t>Nitrogen metabolism</t>
-  </si>
-  <si>
-    <t>Fatty acid metabolism</t>
-  </si>
-  <si>
-    <t>Lysine degradation</t>
-  </si>
-  <si>
-    <t>Valine, leucine and isoleucine degradation</t>
-  </si>
-  <si>
-    <t>beta-Alanine metabolism</t>
-  </si>
-  <si>
-    <t>Folate transport and metabolism</t>
-  </si>
-  <si>
-    <t>Fatty acid degradation</t>
-  </si>
-  <si>
     <t>Pyruvate metabolism</t>
   </si>
   <si>
@@ -512,6 +512,9 @@
     <t>2-Oxocarboxylic acid metabolism</t>
   </si>
   <si>
+    <t>Two-component system</t>
+  </si>
+  <si>
     <t>Sulfur relay system</t>
   </si>
   <si>
@@ -536,9 +539,6 @@
     <t>Arginine biosynthesis</t>
   </si>
   <si>
-    <t>Two-component system</t>
-  </si>
-  <si>
     <t>Teichoic acid biosynthesis</t>
   </si>
   <si>
@@ -581,6 +581,9 @@
     <t>Biosynthesis of amino acids</t>
   </si>
   <si>
+    <t>beta-Lactam resistance</t>
+  </si>
+  <si>
     <t>Starch and sucrose metabolism</t>
   </si>
   <si>
@@ -605,9 +608,6 @@
     <t>Pyrimidine metabolism</t>
   </si>
   <si>
-    <t>beta-Lactam resistance</t>
-  </si>
-  <si>
     <t>Polyketide sugar unit biosynthesis</t>
   </si>
   <si>
@@ -629,7 +629,7 @@
     <t>cds-C4N14_04180;cds-C4N14_05600</t>
   </si>
   <si>
-    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
+    <t>cds-C4N14_02370;cds-C4N14_09550;cds-C4N14_08725;cds-C4N14_08720;cds-C4N14_06785;cds-C4N14_05765;cds-C4N14_05425;cds-C4N14_10405;cds-C4N14_00680;cds-C4N14_01180;cds-C4N14_01890;cds-C4N14_02100;cds-C4N14_02135;cds-C4N14_02145</t>
   </si>
   <si>
     <t>cds-C4N14_05025;cds-C4N14_05030;cds-C4N14_05045;cds-C4N14_05050;cds-C4N14_10030;cds-C4N14_09815;cds-C4N14_06570;cds-C4N14_06560;cds-C4N14_05720;cds-C4N14_05710;cds-C4N14_05705;cds-C4N14_05700;cds-C4N14_10250;cds-C4N14_10400;cds-C4N14_10615;cds-C4N14_00320;cds-C4N14_00325;cds-C4N14_00660;cds-C4N14_00685;cds-C4N14_00690;cds-C4N14_00695;cds-C4N14_00700;cds-C4N14_00705;cds-C4N14_00710;cds-C4N14_00715;cds-C4N14_00720;cds-C4N14_00725;cds-C4N14_00730;cds-C4N14_00735;cds-C4N14_00740;cds-C4N14_00745;cds-C4N14_00750;cds-C4N14_00755;cds-C4N14_00760;cds-C4N14_00765;cds-C4N14_00770;cds-C4N14_00775;cds-C4N14_00780;cds-C4N14_00785;cds-C4N14_00840;cds-C4N14_00845;cds-C4N14_01475;cds-C4N14_03925;cds-C4N14_03655;cds-C4N14_03125;cds-C4N14_01865;cds-C4N14_01870;cds-C4N14_01875;cds-C4N14_01880;cds-C4N14_01900</t>
@@ -704,9 +704,6 @@
     <t>cds-C4N14_09095;cds-C4N14_09090;cds-C4N14_09080;cds-C4N14_07595;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10880;cds-C4N14_00270;cds-C4N14_01480;cds-C4N14_01530;cds-C4N14_01535;cds-C4N14_03445</t>
   </si>
   <si>
-    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09805;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
-  </si>
-  <si>
     <t>cds-C4N14_09430;cds-C4N14_06300;cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
   </si>
   <si>
@@ -725,6 +722,9 @@
     <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08295;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06270;cds-C4N14_10535;cds-C4N14_00210;cds-C4N14_03785;cds-C4N14_03780</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
+  </si>
+  <si>
     <t>cds-C4N14_02800;cds-C4N14_04375;cds-C4N14_04380;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04670;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09785;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_09540;cds-C4N14_09430;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08155;cds-C4N14_07565;cds-C4N14_07115;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10135;cds-C4N14_10260;cds-C4N14_10515;cds-C4N14_10535;cds-C4N14_10635;cds-C4N14_10865;cds-C4N14_10880;cds-C4N14_00210;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
   </si>
   <si>
@@ -740,24 +740,21 @@
     <t>cds-C4N14_05010;cds-C4N14_10105;cds-C4N14_09955;cds-C4N14_09430;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_07595;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_10260;cds-C4N14_10535;cds-C4N14_01055;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01950</t>
   </si>
   <si>
-    <t>cds-C4N14_09855;cds-C4N14_09255;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_05430</t>
-  </si>
-  <si>
     <t>cds-C4N14_04670;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_08295;cds-C4N14_06275;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_00210</t>
   </si>
   <si>
     <t>cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_05010;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_09750;cds-C4N14_09135;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08295;cds-C4N14_08240;cds-C4N14_07070;cds-C4N14_07065;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06345;cds-C4N14_06300;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10535;cds-C4N14_10865;cds-C4N14_00210;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03680;cds-C4N14_03060;cds-C4N14_01950;cds-C4N14_02080</t>
   </si>
   <si>
-    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09805;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
-  </si>
-  <si>
     <t>cds-C4N14_04880;cds-C4N14_09785;cds-C4N14_08920;cds-C4N14_08805</t>
   </si>
   <si>
     <t>cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04135;cds-C4N14_04250;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09260;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210;cds-C4N14_03815</t>
   </si>
   <si>
+    <t>cds-C4N14_02390;cds-C4N14_02395;cds-C4N14_02400;cds-C4N14_02450;cds-C4N14_02565;cds-C4N14_02625;cds-C4N14_02635;cds-C4N14_02695;cds-C4N14_02740;cds-C4N14_02745;cds-C4N14_02770;cds-C4N14_02775;cds-C4N14_02780;cds-C4N14_02800;cds-C4N14_02805;cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04115;cds-C4N14_04120;cds-C4N14_04125;cds-C4N14_04130;cds-C4N14_04135;cds-C4N14_04160;cds-C4N14_04180;cds-C4N14_04250;cds-C4N14_04385;cds-C4N14_04390;cds-C4N14_04395;cds-C4N14_04400;cds-C4N14_04460;cds-C4N14_04570;cds-C4N14_04575;cds-C4N14_04670;cds-C4N14_04695;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04745;cds-C4N14_04795;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04880;cds-C4N14_04920;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05135;cds-C4N14_05140;cds-C4N14_05175;cds-C4N14_05180;cds-C4N14_05185;cds-C4N14_05190;cds-C4N14_05195;cds-C4N14_05200;cds-C4N14_05205;cds-C4N14_05210;cds-C4N14_05215;cds-C4N14_05220;cds-C4N14_05230;cds-C4N14_05240;cds-C4N14_05280;cds-C4N14_10125;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_10105;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_10035;cds-C4N14_10005;cds-C4N14_09985;cds-C4N14_09965;cds-C4N14_09955;cds-C4N14_09925;cds-C4N14_09835;cds-C4N14_09810;cds-C4N14_09785;cds-C4N14_09770;cds-C4N14_09755;cds-C4N14_09750;cds-C4N14_09725;cds-C4N14_09720;cds-C4N14_09685;cds-C4N14_09605;cds-C4N14_09555;cds-C4N14_09545;cds-C4N14_09540;cds-C4N14_09520;cds-C4N14_09465;cds-C4N14_09430;cds-C4N14_09330;cds-C4N14_09265;cds-C4N14_09260;cds-C4N14_09255;cds-C4N14_09250;cds-C4N14_09245;cds-C4N14_09135;cds-C4N14_09115;cds-C4N14_09020;cds-C4N14_09015;cds-C4N14_09010;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08930;cds-C4N14_08920;cds-C4N14_08830;cds-C4N14_08825;cds-C4N14_08805;cds-C4N14_08690;cds-C4N14_08670;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08525;cds-C4N14_08520;cds-C4N14_08515;cds-C4N14_08450;cds-C4N14_08445;cds-C4N14_08440;cds-C4N14_08435;cds-C4N14_08430;cds-C4N14_08410;cds-C4N14_08400;cds-C4N14_08330;cds-C4N14_08295;cds-C4N14_08265;cds-C4N14_08260;cds-C4N14_08240;cds-C4N14_08230;cds-C4N14_08225;cds-C4N14_08185;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07930;cds-C4N14_07925;cds-C4N14_07920;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07840;cds-C4N14_07815;cds-C4N14_07800;cds-C4N14_07790;cds-C4N14_07725;cds-C4N14_07660;cds-C4N14_07655;cds-C4N14_07620;cds-C4N14_07615;cds-C4N14_07610;cds-C4N14_07605;cds-C4N14_07595;cds-C4N14_07565;cds-C4N14_07560;cds-C4N14_07545;cds-C4N14_07525;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07470;cds-C4N14_07415;cds-C4N14_07410;cds-C4N14_07405;cds-C4N14_07380;cds-C4N14_07370;cds-C4N14_07355;cds-C4N14_07345;cds-C4N14_07340;cds-C4N14_07325;cds-C4N14_07315;cds-C4N14_07310;cds-C4N14_07300;cds-C4N14_07290;cds-C4N14_07270;cds-C4N14_07265;cds-C4N14_07250;cds-C4N14_07245;cds-C4N14_07240;cds-C4N14_07235;cds-C4N14_07230;cds-C4N14_07225;cds-C4N14_07220;cds-C4N14_07175;cds-C4N14_07170;cds-C4N14_07165;cds-C4N14_07115;cds-C4N14_07100;cds-C4N14_07095;cds-C4N14_07090;cds-C4N14_07070;cds-C4N14_07025;cds-C4N14_06915;cds-C4N14_06885;cds-C4N14_06875;cds-C4N14_06625;cds-C4N14_06555;cds-C4N14_06535;cds-C4N14_06495;cds-C4N14_06485;cds-C4N14_06480;cds-C4N14_06430;cds-C4N14_06380;cds-C4N14_06365;cds-C4N14_06345;cds-C4N14_06320;cds-C4N14_06310;cds-C4N14_06300;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_06200;cds-C4N14_06120;cds-C4N14_06090;cds-C4N14_06075;cds-C4N14_06030;cds-C4N14_06010;cds-C4N14_06005;cds-C4N14_05980;cds-C4N14_05815;cds-C4N14_05800;cds-C4N14_05790;cds-C4N14_05745;cds-C4N14_05620;cds-C4N14_05615;cds-C4N14_05600;cds-C4N14_05580;cds-C4N14_05575;cds-C4N14_05485;cds-C4N14_05480;cds-C4N14_05475;cds-C4N14_05465;cds-C4N14_10135;cds-C4N14_10145;cds-C4N14_10260;cds-C4N14_10310;cds-C4N14_10420;cds-C4N14_10440;cds-C4N14_10455;cds-C4N14_10465;cds-C4N14_10470;cds-C4N14_10475;cds-C4N14_10485;cds-C4N14_10490;cds-C4N14_10495;cds-C4N14_10515;cds-C4N14_10525;cds-C4N14_10535;cds-C4N14_10630;cds-C4N14_10635;cds-C4N14_10640;cds-C4N14_10690;cds-C4N14_10695;cds-C4N14_10700;cds-C4N14_10705;cds-C4N14_10710;cds-C4N14_10715;cds-C4N14_10725;cds-C4N14_10735;cds-C4N14_10740;cds-C4N14_10800;cds-C4N14_10805;cds-C4N14_10835;cds-C4N14_10840;cds-C4N14_10860;cds-C4N14_10865;cds-C4N14_10870;cds-C4N14_10880;cds-C4N14_00055;cds-C4N14_00060;cds-C4N14_00065;cds-C4N14_00070;cds-C4N14_00125;cds-C4N14_00210;cds-C4N14_00215;cds-C4N14_00245;cds-C4N14_00250;cds-C4N14_00370;cds-C4N14_00375;cds-C4N14_00465;cds-C4N14_00585;cds-C4N14_00590;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_00890;cds-C4N14_00950;cds-C4N14_01020;cds-C4N14_01040;cds-C4N14_01055;cds-C4N14_01065;cds-C4N14_01240;cds-C4N14_01245;cds-C4N14_01250;cds-C4N14_01260;cds-C4N14_01265;cds-C4N14_01270;cds-C4N14_01275;cds-C4N14_01280;cds-C4N14_01285;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01330;cds-C4N14_01335;cds-C4N14_01340;cds-C4N14_01345;cds-C4N14_01355;cds-C4N14_01360;cds-C4N14_01365;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_01475;cds-C4N14_01500;cds-C4N14_01505;cds-C4N14_01515;cds-C4N14_01585;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860;cds-C4N14_03840;cds-C4N14_03815;cds-C4N14_03800;cds-C4N14_03790;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720;cds-C4N14_03680;cds-C4N14_03565;cds-C4N14_03545;cds-C4N14_03530;cds-C4N14_03490;cds-C4N14_03470;cds-C4N14_03425;cds-C4N14_03415;cds-C4N14_03345;cds-C4N14_03065;cds-C4N14_03060;cds-C4N14_02995;cds-C4N14_01845;cds-C4N14_01950;cds-C4N14_02030;cds-C4N14_02045;cds-C4N14_02080;cds-C4N14_02205;cds-C4N14_02210;cds-C4N14_02215</t>
+  </si>
+  <si>
     <t>cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03755;cds-C4N14_03750;cds-C4N14_03735;cds-C4N14_03730;cds-C4N14_03725;cds-C4N14_03720</t>
   </si>
   <si>
@@ -773,6 +770,9 @@
     <t>cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_08295;cds-C4N14_07840;cds-C4N14_06535;cds-C4N14_00210</t>
   </si>
   <si>
+    <t>cds-C4N14_04115;cds-C4N14_09955;cds-C4N14_09555;cds-C4N14_03870;cds-C4N14_03865;cds-C4N14_03860</t>
+  </si>
+  <si>
     <t>cds-C4N14_02800;cds-C4N14_04385;cds-C4N14_04670;cds-C4N14_05180;cds-C4N14_10115;cds-C4N14_10110;cds-C4N14_09955;cds-C4N14_09750;cds-C4N14_09685;cds-C4N14_08240;cds-C4N14_06915;cds-C4N14_06555;cds-C4N14_06310;cds-C4N14_06275;cds-C4N14_06270;cds-C4N14_06265;cds-C4N14_06260;cds-C4N14_10310;cds-C4N14_10535;cds-C4N14_00215;cds-C4N14_01395</t>
   </si>
   <si>
@@ -797,6 +797,9 @@
     <t>cds-C4N14_06380;cds-C4N14_06270;cds-C4N14_10535</t>
   </si>
   <si>
+    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_05765;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
+  </si>
+  <si>
     <t>cds-C4N14_02625;cds-C4N14_08385;cds-C4N14_01345;cds-C4N14_01350;cds-C4N14_03475</t>
   </si>
   <si>
@@ -821,9 +824,6 @@
     <t>cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_09785;cds-C4N14_06380;cds-C4N14_10420</t>
   </si>
   <si>
-    <t>cds-C4N14_04330;cds-C4N14_04490;cds-C4N14_04495;cds-C4N14_04720;cds-C4N14_04725;cds-C4N14_04990;cds-C4N14_04995;cds-C4N14_09750;cds-C4N14_05830;cds-C4N14_05825;cds-C4N14_10315;cds-C4N14_10320;cds-C4N14_10325;cds-C4N14_10330;cds-C4N14_10420;cds-C4N14_03785;cds-C4N14_03780;cds-C4N14_03775;cds-C4N14_02185;cds-C4N14_02190;cds-C4N14_02195</t>
-  </si>
-  <si>
     <t>cds-C4N14_05905;cds-C4N14_01035</t>
   </si>
   <si>
@@ -866,6 +866,9 @@
     <t>cds-C4N14_02565;cds-C4N14_04180;cds-C4N14_04745;cds-C4N14_04810;cds-C4N14_04815;cds-C4N14_04955;cds-C4N14_05010;cds-C4N14_05175;cds-C4N14_10105;cds-C4N14_10035;cds-C4N14_09115;cds-C4N14_08980;cds-C4N14_08970;cds-C4N14_08825;cds-C4N14_08575;cds-C4N14_08570;cds-C4N14_08330;cds-C4N14_08155;cds-C4N14_08105;cds-C4N14_07565;cds-C4N14_07510;cds-C4N14_07505;cds-C4N14_07095;cds-C4N14_06885;cds-C4N14_06625;cds-C4N14_06380;cds-C4N14_06030;cds-C4N14_10260;cds-C4N14_10485;cds-C4N14_10860;cds-C4N14_00375;cds-C4N14_01300;cds-C4N14_01305;cds-C4N14_01390;cds-C4N14_01395;cds-C4N14_03680;cds-C4N14_03060</t>
   </si>
   <si>
+    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05765;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
+  </si>
+  <si>
     <t>cds-C4N14_09430;cds-C4N14_08225;cds-C4N14_07910;cds-C4N14_07905;cds-C4N14_07900;cds-C4N14_07895;cds-C4N14_07890;cds-C4N14_07885;cds-C4N14_07595;cds-C4N14_06300;cds-C4N14_05800;cds-C4N14_01950</t>
   </si>
   <si>
@@ -888,9 +891,6 @@
   </si>
   <si>
     <t>cds-C4N14_01785;cds-C4N14_01780;cds-C4N14_04570;cds-C4N14_04920;cds-C4N14_10085;cds-C4N14_10080;cds-C4N14_10075;cds-C4N14_10070;cds-C4N14_10065;cds-C4N14_10060;cds-C4N14_10055;cds-C4N14_10045;cds-C4N14_10040;cds-C4N14_09810;cds-C4N14_08410;cds-C4N14_07025;cds-C4N14_05485;cds-C4N14_00595;cds-C4N14_00605;cds-C4N14_00670;cds-C4N14_03565</t>
-  </si>
-  <si>
-    <t>cds-C4N14_09855;cds-C4N14_09605;cds-C4N14_06365;cds-C4N14_06075;cds-C4N14_05760;cds-C4N14_05755;cds-C4N14_00485</t>
   </si>
   <si>
     <t>cds-C4N14_05615;cds-C4N14_00890;cds-C4N14_01020</t>
@@ -991,7 +991,7 @@
         <v>2.894393613078319E-12</v>
       </c>
       <c r="G2" t="n">
-        <v>4.113859475608705E-11</v>
+        <v>3.599627041157617E-11</v>
       </c>
       <c r="H2" t="s">
         <v>8</v>
@@ -1150,22 +1150,22 @@
         <v>14</v>
       </c>
       <c r="B8" t="n">
-        <v>13.0</v>
+        <v>14.0</v>
       </c>
       <c r="C8" t="s">
         <v>103</v>
       </c>
       <c r="D8" t="n">
-        <v>6.1598239439030904E-6</v>
+        <v>3.6998817194954145E-6</v>
       </c>
       <c r="E8" t="n">
-        <v>8.359761066725623E-5</v>
+        <v>5.0212680478866336E-5</v>
       </c>
       <c r="F8" t="n">
-        <v>6.797021574302152E-12</v>
+        <v>2.0808406275297003E-12</v>
       </c>
       <c r="G8" t="n">
-        <v>7.174633883985605E-11</v>
+        <v>3.294664326922026E-11</v>
       </c>
       <c r="H8" t="s">
         <v>110</v>
@@ -1223,7 +1223,7 @@
         <v>6.757002798833321E-6</v>
       </c>
       <c r="G10" t="n">
-        <v>1.5656469899735744E-5</v>
+        <v>1.5283696806884893E-5</v>
       </c>
       <c r="H10" t="s">
         <v>112</v>
@@ -1281,7 +1281,7 @@
         <v>3.0312648767643093E-12</v>
       </c>
       <c r="G12" t="n">
-        <v>4.113859475608705E-11</v>
+        <v>3.599627041157617E-11</v>
       </c>
       <c r="H12" t="s">
         <v>114</v>
@@ -1310,7 +1310,7 @@
         <v>5.149938806819971E-15</v>
       </c>
       <c r="G13" t="n">
-        <v>3.4970984888521574E-13</v>
+        <v>3.478112957615782E-13</v>
       </c>
       <c r="H13" t="s">
         <v>115</v>
@@ -1339,7 +1339,7 @@
         <v>3.51406838873695E-12</v>
       </c>
       <c r="G14" t="n">
-        <v>4.1729562116251285E-11</v>
+        <v>3.709294410333447E-11</v>
       </c>
       <c r="H14" t="s">
         <v>116</v>
@@ -1368,7 +1368,7 @@
         <v>8.01496394179329E-5</v>
       </c>
       <c r="G15" t="n">
-        <v>1.5104448345831594E-4</v>
+        <v>1.4929834793536522E-4</v>
       </c>
       <c r="H15" t="s">
         <v>117</v>
@@ -1484,7 +1484,7 @@
         <v>2.242601251527741E-5</v>
       </c>
       <c r="G19" t="n">
-        <v>4.734380419891898E-5</v>
+        <v>4.6314591064159867E-5</v>
       </c>
       <c r="H19" t="s">
         <v>121</v>
@@ -1542,7 +1542,7 @@
         <v>4.330338827044871E-5</v>
       </c>
       <c r="G21" t="n">
-        <v>8.752812522750272E-5</v>
+        <v>8.570462261859641E-5</v>
       </c>
       <c r="H21" t="s">
         <v>123</v>
@@ -1571,7 +1571,7 @@
         <v>7.456439056548478E-6</v>
       </c>
       <c r="G22" t="n">
-        <v>1.6865755008859654E-5</v>
+        <v>1.6473528148188496E-5</v>
       </c>
       <c r="H22" t="s">
         <v>124</v>
@@ -1687,7 +1687,7 @@
         <v>3.768713375806794E-5</v>
       </c>
       <c r="G26" t="n">
-        <v>7.78321240655751E-5</v>
+        <v>7.617612142588201E-5</v>
       </c>
       <c r="H26" t="s">
         <v>128</v>
@@ -1745,7 +1745,7 @@
         <v>4.611998632093313E-5</v>
       </c>
       <c r="G28" t="n">
-        <v>9.127913959351348E-5</v>
+        <v>8.941630000997239E-5</v>
       </c>
       <c r="H28" t="s">
         <v>130</v>
@@ -1875,22 +1875,22 @@
         <v>39</v>
       </c>
       <c r="B33" t="n">
-        <v>7.0</v>
+        <v>5.0</v>
       </c>
       <c r="C33" t="s">
         <v>103</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0031521433792787135</v>
+        <v>0.0033757232855807944</v>
       </c>
       <c r="E33" t="n">
-        <v>0.00935792565723368</v>
+        <v>0.009748963257734675</v>
       </c>
       <c r="F33" t="n">
-        <v>0.010628980420110226</v>
+        <v>0.014157748909311364</v>
       </c>
       <c r="G33" t="n">
-        <v>0.01602782761762653</v>
+        <v>0.02134898645054888</v>
       </c>
       <c r="H33" t="s">
         <v>135</v>
@@ -1904,22 +1904,22 @@
         <v>40</v>
       </c>
       <c r="B34" t="n">
-        <v>5.0</v>
+        <v>23.0</v>
       </c>
       <c r="C34" t="s">
         <v>103</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0033757232855807944</v>
+        <v>0.003386481973739413</v>
       </c>
       <c r="E34" t="n">
-        <v>0.009462229044271889</v>
+        <v>0.009748963257734675</v>
       </c>
       <c r="F34" t="n">
-        <v>0.014157748909311364</v>
+        <v>1.117775244362452E-14</v>
       </c>
       <c r="G34" t="n">
-        <v>0.021015408537259056</v>
+        <v>3.5396216071477644E-13</v>
       </c>
       <c r="H34" t="s">
         <v>136</v>
@@ -1933,22 +1933,22 @@
         <v>41</v>
       </c>
       <c r="B35" t="n">
-        <v>23.0</v>
+        <v>3.0</v>
       </c>
       <c r="C35" t="s">
         <v>103</v>
       </c>
       <c r="D35" t="n">
-        <v>0.003386481973739413</v>
+        <v>0.0037479950555478836</v>
       </c>
       <c r="E35" t="n">
-        <v>0.009462229044271889</v>
+        <v>0.010472339125795557</v>
       </c>
       <c r="F35" t="n">
-        <v>1.117775244362452E-14</v>
+        <v>0.6767160780858787</v>
       </c>
       <c r="G35" t="n">
-        <v>3.5396216071477644E-13</v>
+        <v>0.7475352025367265</v>
       </c>
       <c r="H35" t="s">
         <v>137</v>
@@ -1962,22 +1962,22 @@
         <v>42</v>
       </c>
       <c r="B36" t="n">
-        <v>3.0</v>
+        <v>11.0</v>
       </c>
       <c r="C36" t="s">
         <v>103</v>
       </c>
       <c r="D36" t="n">
-        <v>0.0037479950555478836</v>
+        <v>0.004396344824709868</v>
       </c>
       <c r="E36" t="n">
-        <v>0.010173129436487113</v>
+        <v>0.011932935952783929</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6767160780858787</v>
+        <v>0.0010601872289298059</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7475352025367265</v>
+        <v>0.0017365135646264063</v>
       </c>
       <c r="H36" t="s">
         <v>138</v>
@@ -1991,22 +1991,22 @@
         <v>43</v>
       </c>
       <c r="B37" t="n">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="C37" t="s">
         <v>103</v>
       </c>
       <c r="D37" t="n">
-        <v>0.004396344824709868</v>
+        <v>0.004572388012610529</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01160146550965104</v>
+        <v>0.012066023922166673</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0010601872289298059</v>
+        <v>1.1913576291431463E-7</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0017365135646264063</v>
+        <v>3.5368429615187157E-7</v>
       </c>
       <c r="H37" t="s">
         <v>139</v>
@@ -2020,22 +2020,22 @@
         <v>44</v>
       </c>
       <c r="B38" t="n">
-        <v>22.0</v>
+        <v>20.0</v>
       </c>
       <c r="C38" t="s">
         <v>103</v>
       </c>
       <c r="D38" t="n">
-        <v>0.004572388012610529</v>
+        <v>0.004998898566162035</v>
       </c>
       <c r="E38" t="n">
-        <v>0.01173991516751352</v>
+        <v>0.01274044938050246</v>
       </c>
       <c r="F38" t="n">
-        <v>1.1913576291431463E-7</v>
+        <v>4.7550812167726067E-7</v>
       </c>
       <c r="G38" t="n">
-        <v>3.5368429615187157E-7</v>
+        <v>1.1582890143420452E-6</v>
       </c>
       <c r="H38" t="s">
         <v>140</v>
@@ -2049,22 +2049,22 @@
         <v>45</v>
       </c>
       <c r="B39" t="n">
-        <v>20.0</v>
+        <v>6.0</v>
       </c>
       <c r="C39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D39" t="n">
-        <v>0.004998898566162035</v>
+        <v>0.005216641848723415</v>
       </c>
       <c r="E39" t="n">
-        <v>0.012497246415405087</v>
+        <v>0.01274044938050246</v>
       </c>
       <c r="F39" t="n">
-        <v>4.7550812167726067E-7</v>
+        <v>0.025403732749353546</v>
       </c>
       <c r="G39" t="n">
-        <v>1.1582890143420452E-6</v>
+        <v>0.03770866579982167</v>
       </c>
       <c r="H39" t="s">
         <v>141</v>
@@ -2151,7 +2151,7 @@
         <v>0.07701486454322573</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1060349584290789</v>
+        <v>0.10452017330866349</v>
       </c>
       <c r="H42" t="s">
         <v>144</v>
@@ -2180,7 +2180,7 @@
         <v>6.182218560438748E-5</v>
       </c>
       <c r="G43" t="n">
-        <v>1.1985933943707776E-4</v>
+        <v>1.1746215264833621E-4</v>
       </c>
       <c r="H43" t="s">
         <v>145</v>
@@ -2223,22 +2223,22 @@
         <v>51</v>
       </c>
       <c r="B45" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D45" t="n">
-        <v>0.007947251234773548</v>
+        <v>0.008018716618661622</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01692840175050787</v>
+        <v>0.017313138153928504</v>
       </c>
       <c r="F45" t="n">
-        <v>0.08304672541152157</v>
+        <v>0.031194605623678887</v>
       </c>
       <c r="G45" t="n">
-        <v>0.11270627020135071</v>
+        <v>0.04559211591153068</v>
       </c>
       <c r="H45" t="s">
         <v>147</v>
@@ -2252,22 +2252,22 @@
         <v>52</v>
       </c>
       <c r="B46" t="n">
-        <v>8.0</v>
+        <v>40.0</v>
       </c>
       <c r="C46" t="s">
         <v>103</v>
       </c>
       <c r="D46" t="n">
-        <v>0.008018716618661622</v>
+        <v>0.008561180626617003</v>
       </c>
       <c r="E46" t="n">
-        <v>0.01692840175050787</v>
+        <v>0.01807360354508034</v>
       </c>
       <c r="F46" t="n">
-        <v>0.031194605623678887</v>
+        <v>4.0597603499324386E-7</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04559211591153068</v>
+        <v>1.0149400874831095E-6</v>
       </c>
       <c r="H46" t="s">
         <v>148</v>
@@ -2281,22 +2281,22 @@
         <v>53</v>
       </c>
       <c r="B47" t="n">
-        <v>40.0</v>
+        <v>4.0</v>
       </c>
       <c r="C47" t="s">
         <v>103</v>
       </c>
       <c r="D47" t="n">
-        <v>0.008561180626617003</v>
+        <v>0.008798352906137391</v>
       </c>
       <c r="E47" t="n">
-        <v>0.01741340679339692</v>
+        <v>0.01817051143658809</v>
       </c>
       <c r="F47" t="n">
-        <v>4.0597603499324386E-7</v>
+        <v>0.4319876303607952</v>
       </c>
       <c r="G47" t="n">
-        <v>1.0149400874831095E-6</v>
+        <v>0.4944436733045246</v>
       </c>
       <c r="H47" t="s">
         <v>149</v>
@@ -2310,22 +2310,22 @@
         <v>54</v>
       </c>
       <c r="B48" t="n">
-        <v>356.0</v>
+        <v>14.0</v>
       </c>
       <c r="C48" t="s">
         <v>103</v>
       </c>
       <c r="D48" t="n">
-        <v>0.008766109123177934</v>
+        <v>0.009107724701045738</v>
       </c>
       <c r="E48" t="n">
-        <v>0.01741340679339692</v>
+        <v>0.01840923077870947</v>
       </c>
       <c r="F48" t="n">
-        <v>7.362312608109805E-15</v>
+        <v>1.292922206941415E-5</v>
       </c>
       <c r="G48" t="n">
-        <v>3.4970984888521574E-13</v>
+        <v>2.7295024368763208E-5</v>
       </c>
       <c r="H48" t="s">
         <v>150</v>
@@ -2339,22 +2339,22 @@
         <v>55</v>
       </c>
       <c r="B49" t="n">
-        <v>4.0</v>
+        <v>355.0</v>
       </c>
       <c r="C49" t="s">
         <v>103</v>
       </c>
       <c r="D49" t="n">
-        <v>0.008798352906137391</v>
+        <v>0.009565417037000541</v>
       </c>
       <c r="E49" t="n">
-        <v>0.01741340679339692</v>
+        <v>0.018931554552396906</v>
       </c>
       <c r="F49" t="n">
-        <v>0.4319876303607952</v>
+        <v>7.322343068664804E-15</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4944436733045246</v>
+        <v>3.478112957615782E-13</v>
       </c>
       <c r="H49" t="s">
         <v>151</v>
@@ -2368,22 +2368,22 @@
         <v>56</v>
       </c>
       <c r="B50" t="n">
-        <v>14.0</v>
+        <v>12.0</v>
       </c>
       <c r="C50" t="s">
         <v>103</v>
       </c>
       <c r="D50" t="n">
-        <v>0.009107724701045738</v>
+        <v>0.017385319688664948</v>
       </c>
       <c r="E50" t="n">
-        <v>0.01765783360406827</v>
+        <v>0.03370623204945245</v>
       </c>
       <c r="F50" t="n">
-        <v>1.292922206941415E-5</v>
+        <v>8.55568800672618E-4</v>
       </c>
       <c r="G50" t="n">
-        <v>2.7915365831689645E-5</v>
+        <v>0.00142594800112103</v>
       </c>
       <c r="H50" t="s">
         <v>152</v>
@@ -2397,22 +2397,22 @@
         <v>57</v>
       </c>
       <c r="B51" t="n">
-        <v>12.0</v>
+        <v>4.0</v>
       </c>
       <c r="C51" t="s">
         <v>103</v>
       </c>
       <c r="D51" t="n">
-        <v>0.017385319688664948</v>
+        <v>0.018861885769264723</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0330321074084634</v>
+        <v>0.035723697328255165</v>
       </c>
       <c r="F51" t="n">
-        <v>8.55568800672618E-4</v>
+        <v>0.47797751236547664</v>
       </c>
       <c r="G51" t="n">
-        <v>0.00142594800112103</v>
+        <v>0.5405698056514319</v>
       </c>
       <c r="H51" t="s">
         <v>153</v>
@@ -2426,22 +2426,22 @@
         <v>58</v>
       </c>
       <c r="B52" t="n">
-        <v>4.0</v>
+        <v>3.0</v>
       </c>
       <c r="C52" t="s">
         <v>103</v>
       </c>
       <c r="D52" t="n">
-        <v>0.018861885769264723</v>
+        <v>0.01917798488148435</v>
       </c>
       <c r="E52" t="n">
-        <v>0.03503670314886564</v>
+        <v>0.035723697328255165</v>
       </c>
       <c r="F52" t="n">
-        <v>0.47797751236547664</v>
+        <v>0.8693225699414361</v>
       </c>
       <c r="G52" t="n">
-        <v>0.5405698056514319</v>
+        <v>0.8880176789724347</v>
       </c>
       <c r="H52" t="s">
         <v>154</v>
@@ -2455,22 +2455,22 @@
         <v>59</v>
       </c>
       <c r="B53" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="C53" t="s">
         <v>103</v>
       </c>
       <c r="D53" t="n">
-        <v>0.01917798488148435</v>
+        <v>0.020234582679627227</v>
       </c>
       <c r="E53" t="n">
-        <v>0.03503670314886564</v>
+        <v>0.03696702604931897</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8693225699414361</v>
+        <v>0.08511169949149121</v>
       </c>
       <c r="G53" t="n">
-        <v>0.8880176789724347</v>
+        <v>0.11388185143227697</v>
       </c>
       <c r="H53" t="s">
         <v>155</v>
@@ -2484,22 +2484,22 @@
         <v>60</v>
       </c>
       <c r="B54" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
       <c r="C54" t="s">
         <v>103</v>
       </c>
       <c r="D54" t="n">
-        <v>0.020234582679627227</v>
+        <v>0.02810292348720286</v>
       </c>
       <c r="E54" t="n">
-        <v>0.036269534991784654</v>
+        <v>0.05037316474121267</v>
       </c>
       <c r="F54" t="n">
-        <v>0.08511169949149121</v>
+        <v>0.1806603457328042</v>
       </c>
       <c r="G54" t="n">
-        <v>0.11388185143227697</v>
+        <v>0.22289263434566753</v>
       </c>
       <c r="H54" t="s">
         <v>156</v>
@@ -2519,16 +2519,16 @@
         <v>103</v>
       </c>
       <c r="D55" t="n">
-        <v>0.02810292348720286</v>
+        <v>0.029410846557493257</v>
       </c>
       <c r="E55" t="n">
-        <v>0.04944032835711614</v>
+        <v>0.051741304128923325</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1806603457328042</v>
+        <v>0.03514894631633627</v>
       </c>
       <c r="G55" t="n">
-        <v>0.22289263434566753</v>
+        <v>0.05059318030381736</v>
       </c>
       <c r="H55" t="s">
         <v>157</v>
@@ -2774,22 +2774,22 @@
         <v>70</v>
       </c>
       <c r="B64" t="n">
-        <v>5.0</v>
+        <v>22.0</v>
       </c>
       <c r="C64" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D64" t="n">
-        <v>0.10066983260828934</v>
+        <v>0.09499123909555733</v>
       </c>
       <c r="E64" t="n">
-        <v>0.15180371583789662</v>
+        <v>0.1432407573663166</v>
       </c>
       <c r="F64" t="n">
-        <v>0.06416812212814756</v>
+        <v>3.061344838254915E-9</v>
       </c>
       <c r="G64" t="n">
-        <v>0.09098465077871669</v>
+        <v>1.384894093496271E-8</v>
       </c>
       <c r="H64" t="s">
         <v>166</v>
@@ -2803,22 +2803,22 @@
         <v>71</v>
       </c>
       <c r="B65" t="n">
-        <v>12.0</v>
+        <v>5.0</v>
       </c>
       <c r="C65" t="s">
         <v>103</v>
       </c>
       <c r="D65" t="n">
-        <v>0.10784853602783971</v>
+        <v>0.10066983260828934</v>
       </c>
       <c r="E65" t="n">
-        <v>0.15831465056272812</v>
+        <v>0.14943178277792948</v>
       </c>
       <c r="F65" t="n">
-        <v>1.2592606693140442E-8</v>
+        <v>0.06416812212814756</v>
       </c>
       <c r="G65" t="n">
-        <v>4.785190543393368E-8</v>
+        <v>0.08964664120844143</v>
       </c>
       <c r="H65" t="s">
         <v>167</v>
@@ -2832,22 +2832,22 @@
         <v>72</v>
       </c>
       <c r="B66" t="n">
-        <v>9.0</v>
+        <v>12.0</v>
       </c>
       <c r="C66" t="s">
         <v>103</v>
       </c>
       <c r="D66" t="n">
-        <v>0.10832055038502451</v>
+        <v>0.10784853602783971</v>
       </c>
       <c r="E66" t="n">
-        <v>0.15831465056272812</v>
+        <v>0.15591594373602014</v>
       </c>
       <c r="F66" t="n">
-        <v>1.1778863890889021E-9</v>
+        <v>1.2592606693140442E-8</v>
       </c>
       <c r="G66" t="n">
-        <v>5.613529116087164E-9</v>
+        <v>4.785190543393368E-8</v>
       </c>
       <c r="H66" t="s">
         <v>168</v>
@@ -2861,22 +2861,22 @@
         <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>2.0</v>
+        <v>9.0</v>
       </c>
       <c r="C67" t="s">
         <v>103</v>
       </c>
       <c r="D67" t="n">
-        <v>0.11487088506296672</v>
+        <v>0.10832055038502451</v>
       </c>
       <c r="E67" t="n">
-        <v>0.1653444557724521</v>
+        <v>0.15591594373602014</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9179053087942106</v>
+        <v>1.1778863890889021E-9</v>
       </c>
       <c r="G67" t="n">
-        <v>0.9276702588877661</v>
+        <v>5.613529116087164E-9</v>
       </c>
       <c r="H67" t="s">
         <v>169</v>
@@ -2890,22 +2890,22 @@
         <v>74</v>
       </c>
       <c r="B68" t="n">
-        <v>29.0</v>
+        <v>2.0</v>
       </c>
       <c r="C68" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D68" t="n">
-        <v>0.12302684802148858</v>
+        <v>0.11487088506296672</v>
       </c>
       <c r="E68" t="n">
-        <v>0.17444105316479724</v>
+        <v>0.16287662807435582</v>
       </c>
       <c r="F68" t="n">
-        <v>2.837028767854812E-8</v>
+        <v>0.9179053087942106</v>
       </c>
       <c r="G68" t="n">
-        <v>9.982138257266931E-8</v>
+        <v>0.9276702588877661</v>
       </c>
       <c r="H68" t="s">
         <v>170</v>
@@ -2919,22 +2919,22 @@
         <v>75</v>
       </c>
       <c r="B69" t="n">
-        <v>2.0</v>
+        <v>29.0</v>
       </c>
       <c r="C69" t="s">
         <v>104</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1482871392147616</v>
+        <v>0.12302684802148858</v>
       </c>
       <c r="E69" t="n">
-        <v>0.20248472926750233</v>
+        <v>0.17187574355943258</v>
       </c>
       <c r="F69" t="n">
-        <v>0.7612055429583258</v>
+        <v>2.837028767854812E-8</v>
       </c>
       <c r="G69" t="n">
-        <v>0.8125227705734938</v>
+        <v>9.982138257266931E-8</v>
       </c>
       <c r="H69" t="s">
         <v>171</v>
@@ -2948,22 +2948,22 @@
         <v>76</v>
       </c>
       <c r="B70" t="n">
-        <v>6.0</v>
+        <v>2.0</v>
       </c>
       <c r="C70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D70" t="n">
-        <v>0.14867244457301454</v>
+        <v>0.1482871392147616</v>
       </c>
       <c r="E70" t="n">
-        <v>0.20248472926750233</v>
+        <v>0.19963283167218537</v>
       </c>
       <c r="F70" t="n">
-        <v>0.12126957835703664</v>
+        <v>0.7612055429583258</v>
       </c>
       <c r="G70" t="n">
-        <v>0.15781657457422577</v>
+        <v>0.8125227705734938</v>
       </c>
       <c r="H70" t="s">
         <v>172</v>
@@ -2977,22 +2977,22 @@
         <v>77</v>
       </c>
       <c r="B71" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
       <c r="C71" t="s">
         <v>103</v>
       </c>
       <c r="D71" t="n">
-        <v>0.14919927419710696</v>
+        <v>0.14867244457301454</v>
       </c>
       <c r="E71" t="n">
-        <v>0.20248472926750233</v>
+        <v>0.19963283167218537</v>
       </c>
       <c r="F71" t="n">
-        <v>0.2769884173377466</v>
+        <v>0.12126957835703664</v>
       </c>
       <c r="G71" t="n">
-        <v>0.3373576877831529</v>
+        <v>0.15781657457422577</v>
       </c>
       <c r="H71" t="s">
         <v>173</v>
@@ -3006,22 +3006,22 @@
         <v>78</v>
       </c>
       <c r="B72" t="n">
-        <v>21.0</v>
+        <v>5.0</v>
       </c>
       <c r="C72" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D72" t="n">
-        <v>0.1843800691600711</v>
+        <v>0.14919927419710696</v>
       </c>
       <c r="E72" t="n">
-        <v>0.2467057263409402</v>
+        <v>0.19963283167218537</v>
       </c>
       <c r="F72" t="n">
-        <v>5.229563870949087E-9</v>
+        <v>0.2769884173377466</v>
       </c>
       <c r="G72" t="n">
-        <v>2.365755084476968E-8</v>
+        <v>0.3373576877831529</v>
       </c>
       <c r="H72" t="s">
         <v>174</v>
@@ -3079,7 +3079,7 @@
         <v>0.051699593633435376</v>
       </c>
       <c r="G74" t="n">
-        <v>0.07441608174509638</v>
+        <v>0.07330539395785614</v>
       </c>
       <c r="H74" t="s">
         <v>176</v>
@@ -3166,7 +3166,7 @@
         <v>0.0758333651020006</v>
       </c>
       <c r="G77" t="n">
-        <v>0.10594367183367731</v>
+        <v>0.1044082562998559</v>
       </c>
       <c r="H77" t="s">
         <v>179</v>
@@ -3221,10 +3221,10 @@
         <v>0.3833191462865467</v>
       </c>
       <c r="F79" t="n">
-        <v>1.0821056379160052E-7</v>
+        <v>1.0821056379160116E-7</v>
       </c>
       <c r="G79" t="n">
-        <v>3.3161301807103386E-7</v>
+        <v>3.316130180710358E-7</v>
       </c>
       <c r="H79" t="s">
         <v>181</v>
@@ -3421,7 +3421,7 @@
         <v>0.4791348250095414</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5355036279518404</v>
+        <v>0.5301471877819841</v>
       </c>
       <c r="F86" t="n">
         <v>1.378903297018502E-11</v>
@@ -3441,22 +3441,22 @@
         <v>93</v>
       </c>
       <c r="B87" t="n">
-        <v>12.0</v>
+        <v>8.0</v>
       </c>
       <c r="C87" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D87" t="n">
-        <v>0.5199079569527718</v>
+        <v>0.47992271736053305</v>
       </c>
       <c r="E87" t="n">
-        <v>0.5743169291920154</v>
+        <v>0.5301471877819841</v>
       </c>
       <c r="F87" t="n">
-        <v>1.1637116034455048E-5</v>
+        <v>5.564034972835618E-6</v>
       </c>
       <c r="G87" t="n">
-        <v>2.5709907517982082E-5</v>
+        <v>1.2892276156570333E-5</v>
       </c>
       <c r="H87" t="s">
         <v>189</v>
@@ -3470,22 +3470,22 @@
         <v>94</v>
       </c>
       <c r="B88" t="n">
-        <v>3.0</v>
+        <v>12.0</v>
       </c>
       <c r="C88" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" t="n">
-        <v>0.6417531654763129</v>
+        <v>0.5199079569527718</v>
       </c>
       <c r="E88" t="n">
-        <v>0.6994866056452701</v>
+        <v>0.5677155851783141</v>
       </c>
       <c r="F88" t="n">
-        <v>0.7739739115198937</v>
+        <v>1.1637116034455048E-5</v>
       </c>
       <c r="G88" t="n">
-        <v>0.8169724621598878</v>
+        <v>2.5125591438027948E-5</v>
       </c>
       <c r="H88" t="s">
         <v>190</v>
@@ -3499,22 +3499,22 @@
         <v>95</v>
       </c>
       <c r="B89" t="n">
-        <v>19.0</v>
+        <v>3.0</v>
       </c>
       <c r="C89" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D89" t="n">
-        <v>0.6479454873345659</v>
+        <v>0.6417531654763129</v>
       </c>
       <c r="E89" t="n">
-        <v>0.6994866056452701</v>
+        <v>0.69162720558184</v>
       </c>
       <c r="F89" t="n">
-        <v>1.1817956033867715E-9</v>
+        <v>0.7739739115198937</v>
       </c>
       <c r="G89" t="n">
-        <v>5.613529116087164E-9</v>
+        <v>0.8169724621598878</v>
       </c>
       <c r="H89" t="s">
         <v>191</v>
@@ -3528,22 +3528,22 @@
         <v>96</v>
       </c>
       <c r="B90" t="n">
-        <v>11.0</v>
+        <v>19.0</v>
       </c>
       <c r="C90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D90" t="n">
-        <v>0.7091381145254562</v>
+        <v>0.6479454873345659</v>
       </c>
       <c r="E90" t="n">
-        <v>0.7519195954795087</v>
+        <v>0.69162720558184</v>
       </c>
       <c r="F90" t="n">
-        <v>2.2624120250829122E-7</v>
+        <v>1.1817956033867715E-9</v>
       </c>
       <c r="G90" t="n">
-        <v>5.970253955079907E-7</v>
+        <v>5.613529116087164E-9</v>
       </c>
       <c r="H90" t="s">
         <v>192</v>
@@ -3563,16 +3563,16 @@
         <v>104</v>
       </c>
       <c r="D91" t="n">
-        <v>0.7123448799279556</v>
+        <v>0.7091381145254562</v>
       </c>
       <c r="E91" t="n">
-        <v>0.7519195954795087</v>
+        <v>0.7436567427819317</v>
       </c>
       <c r="F91" t="n">
-        <v>7.490468200552098E-4</v>
+        <v>2.2624120250829122E-7</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0012707044268793738</v>
+        <v>5.970253955079907E-7</v>
       </c>
       <c r="H91" t="s">
         <v>193</v>
@@ -3586,22 +3586,22 @@
         <v>98</v>
       </c>
       <c r="B92" t="n">
-        <v>16.0</v>
+        <v>11.0</v>
       </c>
       <c r="C92" t="s">
         <v>104</v>
       </c>
       <c r="D92" t="n">
-        <v>0.7702714672006102</v>
+        <v>0.7123448799279556</v>
       </c>
       <c r="E92" t="n">
-        <v>0.8014691543073841</v>
+        <v>0.7436567427819317</v>
       </c>
       <c r="F92" t="n">
-        <v>8.267265126514859E-11</v>
+        <v>7.490468200552098E-4</v>
       </c>
       <c r="G92" t="n">
-        <v>6.544918225157597E-10</v>
+        <v>0.0012707044268793738</v>
       </c>
       <c r="H92" t="s">
         <v>194</v>
@@ -3615,22 +3615,22 @@
         <v>99</v>
       </c>
       <c r="B93" t="n">
-        <v>3.0</v>
+        <v>16.0</v>
       </c>
       <c r="C93" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D93" t="n">
-        <v>0.7761596020660984</v>
+        <v>0.7702714672006102</v>
       </c>
       <c r="E93" t="n">
-        <v>0.8014691543073841</v>
+        <v>0.7928512064116058</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11503627459430886</v>
+        <v>8.267265126514859E-11</v>
       </c>
       <c r="G93" t="n">
-        <v>0.15178397342304642</v>
+        <v>6.544918225157597E-10</v>
       </c>
       <c r="H93" t="s">
         <v>195</v>
@@ -3644,22 +3644,22 @@
         <v>100</v>
       </c>
       <c r="B94" t="n">
-        <v>21.0</v>
+        <v>3.0</v>
       </c>
       <c r="C94" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D94" t="n">
-        <v>0.8748932405057397</v>
+        <v>0.7761596020660984</v>
       </c>
       <c r="E94" t="n">
-        <v>0.8937081489037125</v>
+        <v>0.7928512064116058</v>
       </c>
       <c r="F94" t="n">
-        <v>1.7684340416739602E-7</v>
+        <v>0.11503627459430886</v>
       </c>
       <c r="G94" t="n">
-        <v>4.941212763500771E-7</v>
+        <v>0.15178397342304642</v>
       </c>
       <c r="H94" t="s">
         <v>196</v>
@@ -3673,22 +3673,22 @@
         <v>101</v>
       </c>
       <c r="B95" t="n">
-        <v>7.0</v>
+        <v>21.0</v>
       </c>
       <c r="C95" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D95" t="n">
-        <v>0.9233224283164921</v>
+        <v>0.8748932405057397</v>
       </c>
       <c r="E95" t="n">
-        <v>0.9331450073411357</v>
+        <v>0.8842006154047369</v>
       </c>
       <c r="F95" t="n">
-        <v>8.108703848814856E-5</v>
+        <v>1.7684340416739602E-7</v>
       </c>
       <c r="G95" t="n">
-        <v>1.5104448345831594E-4</v>
+        <v>4.941212763500771E-7</v>
       </c>
       <c r="H95" t="s">
         <v>197</v>
